--- a/experiment_results/9511P25.xlsx
+++ b/experiment_results/9511P25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1367"/>
+  <dimension ref="A1:I1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Wildlife Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045LOIRE</t>
+          <t>PRODUCTCODE: 268293P3</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Amboise, Chenonceau and Chambord are three Marvellous Castles in the UNESCO-listed Loire Valley. Find out which castle the royals favored, where Leonardo da Vinci’s remains are buried, and which castle is so stunning that it boasts its own UNESCO status.</t>
+          <t>Summarized description: Live-guided Small-group trip for 4 to 7 people to 3 top Loire Valley Castles: Chenonceau, Amboise and Chambord. Mercedes Minivan with adjustable seats, Hotel Pick up offered. Duration of 13 hours, longer as usual.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Small-Group Day Trip from Paris</t>
+          <t xml:space="preserve">Title: 3 Loire Castles Live Guided Small group Mercedes minivan Winery </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 84</t>
+          <t>TotalReviews: 98</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35428P2</t>
+          <t>PRODUCTCODE: 5045LOIRE</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the magnificent Château de Chambord, savor a wine &amp; food pairing lunch at a family-run winery or a gourmet restaurant. White, red, rosé, sparkling wines, you’ll be amazed by the diversity of Loire Valley wines. This small-group tour limited to 8 people includes round-trip transportation in air-conditioned minivan.</t>
+          <t>Summarized description: Amboise, Chenonceau and Chambord are three Marvellous Castles in the UNESCO-listed Loire Valley. Find out which castle the royals favored, where Leonardo da Vinci’s remains are buried, and which castle is so stunning that it boasts its own UNESCO status.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Wines and Castle Small Group Day Trip from Paris</t>
+          <t>Title: Loire Valley Castles Small-Group Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 84</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P289</t>
+          <t>PRODUCTCODE: 35428P2</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beautiful Loire Valley region. You'll discover three majestic French Chateaux : Chambord, Chenonceau and Cheverny. Visit on your own to fully enjoy the setting.</t>
+          <t>Summarized description: Visit the magnificent Château de Chambord, savor a wine &amp; food pairing lunch at a family-run winery or a gourmet restaurant. White, red, rosé, sparkling wines, you’ll be amazed by the diversity of Loire Valley wines. This small-group tour limited to 8 people includes round-trip transportation in air-conditioned minivan.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Self Guided Loire Valley Day Trip with Palace Entry Tickets</t>
+          <t>Title: Loire Valley Wines and Castle Small Group Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 45</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050CL2</t>
+          <t>PRODUCTCODE: 2050P289</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Discover some of the most picturesque villages on this 2-day Loire Valley Castles tour from Paris. Visit famous French castles such as Château de Chenonceau, Châtereau de Cheverny and Châterau de Chambord. Admire the castles spectacular architecture and ornate interiors.</t>
+          <t>Summarized description: Discover the beautiful Loire Valley region. You'll discover three majestic French Chateaux : Chambord, Chenonceau and Cheverny. Visit on your own to fully enjoy the setting.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: 2-Day Loire Valley Castles Tour from Paris</t>
+          <t>Title: Self Guided Loire Valley Day Trip with Palace Entry Tickets</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 35</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P22</t>
+          <t>PRODUCTCODE: 2050CL2</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Private Live-guided Full-day trip from Paris for 2 to 6 people to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included. Mercedes Minivan for 3-7 people, Mercedes E220 business class car for 2-3 people. Duration of 13 hours, longer as usual.</t>
+          <t>Summarized description: Discover some of the most picturesque villages on this 2-day Loire Valley Castles tour from Paris. Visit famous French castles such as Château de Chenonceau, Châtereau de Cheverny and Châterau de Chambord. Admire the castles spectacular architecture and ornate interiors.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Private 3 Loire Valley Castles from Paris Mercedes Wine tasting</t>
+          <t>Title: 2-Day Loire Valley Castles Tour from Paris</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19014P22</t>
+          <t>PRODUCTCODE: 382111P4</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the gorgeous Loire Valley with your friends or family that is known for its fairytale castles and incredible wineries. You will visit two of the regions most iconic chateaus such as chateau Amboise, Chambord and Chennonceau. Enjoy the atmosphere of a small group tour and get pick-up and a drop-off to your hotel.</t>
+          <t>Summarized description: This tour combines 3 very famous chateaux of your choice in the Loire Valley. Our professional guide and driver will do everything possible and impossible to make your experience unforgettable.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Incredible Loire castles tour with wine tastings and lunch</t>
+          <t>Title: 3 Loire Valley Castles and Wine Tasting Private Guided Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 26</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P39</t>
+          <t>PRODUCTCODE: 268293P22</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. Clos Lucé is now a museum and reflects the prestigious history of the region and includes 40 models of the various machines designed by Leonardo.</t>
+          <t>Summarized description: Private Live-guided Full-day trip from Paris for 2 to 6 people to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included. Mercedes Minivan for 3-7 people, Mercedes E220 business class car for 2-3 people. Duration of 13 hours, longer as usual.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chambord Castle &amp; Da Vinci Castle - Daytrip from Paris</t>
+          <t>Title: Private 3 Loire Valley Castles from Paris Mercedes Wine tasting</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P80</t>
+          <t>PRODUCTCODE: 19014P22</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided Small-group trip for 4 to 7 clients with Hotel pick up option to Chenonceau, Chambord and Leonardo da Vinci Clos Luce castle. Mercedes minivan drives faster than a normal bus and is more comfortable.</t>
+          <t>Summarized description: Discover the gorgeous Loire Valley with your friends or family that is known for its fairytale castles and incredible wineries. You will visit two of the regions most iconic chateaus such as chateau Amboise, Chambord and Chennonceau. Enjoy the atmosphere of a small group tour and get pick-up and a drop-off to your hotel.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Chambord, Chenonceau, Da Vinci Castle Small group Trip from Paris</t>
+          <t>Title: Incredible Loire castles tour with wine tastings and lunch</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 216622P16</t>
+          <t>PRODUCTCODE: 66049P39</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Follow in the footsteps of French Renaissance kings and queens. Experience a real fairy tale in the charming gardens and elaborate interiors of famous French castles.Allow stories of royal affairs, deaths and kidnappings to capture your imagination.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. Clos Lucé is now a museum and reflects the prestigious history of the region and includes 40 models of the various machines designed by Leonardo.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Visit of the Loire Valley Castles in one day from Paris</t>
+          <t>Title: Loire Valley Chambord Castle &amp; Da Vinci Castle - Daytrip from Paris</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045LOIRE_P</t>
+          <t>PRODUCTCODE: 268293P80</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is home to three UNESCO World Heritage-listed châteaux: Amboise, Chenonceau, and Chambord. Find out which castle the royals favored, where Leonardo da Vinci's remains are buried, and which castle is so stunning that it boasts its own UNESCO status.</t>
+          <t>Summarized description: A high-quality Live-guided Small-group trip for 4 to 7 clients with Hotel pick up option to Chenonceau, Chambord and Leonardo da Vinci Clos Luce castle. Mercedes minivan drives faster than a normal bus and is more comfortable.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Private Trip including Lunch from Paris</t>
+          <t>Title: Chambord, Chenonceau, Da Vinci Castle Small group Trip from Paris</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P175</t>
+          <t>PRODUCTCODE: 7817P45</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Discover three majestic French Chateaux : Chambord, Cheverny and Chenonceau. Self-guided audio tour or at your leisure that includes a transfer from central Paris.</t>
+          <t>Summarized description: France's Loire Valley is known for its dozens of castles, or 'châteaux,' where French kings and nobility lived during the 15th and 16th centuries. Learn about figures like Leonardo da Vinci who contributed to the region's artistic landscape.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Day Trip with Audio Guided Option from Paris</t>
+          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P27</t>
+          <t>PRODUCTCODE: 216622P16</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Private Full-day trip from Paris for 2 to 6 persons to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included ! We offer two options: Live Guided during the whole trip or Audio Guided with experienced driver only.</t>
+          <t>Summarized description: Follow in the footsteps of French Renaissance kings and queens. Experience a real fairy tale in the charming gardens and elaborate interiors of famous French castles.Allow stories of royal affairs, deaths and kidnappings to capture your imagination.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Private Chenonceau, Chambord, Amboise Loire Castles from Paris</t>
+          <t>Title: Visit of the Loire Valley Castles in one day from Paris</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P22</t>
+          <t>PRODUCTCODE: 5045LOIRE_P</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of the Loire valley includes a guided tour of Chenonceau and Chambord castles. Discover the double revolution staircase inspired by Leonardo Da Vinci. Lunch in the historic town of Amboise (not included) where da Vinci lived his last years.</t>
+          <t>Summarized description: The Loire Valley is home to three UNESCO World Heritage-listed châteaux: Amboise, Chenonceau, and Chambord. Find out which castle the royals favored, where Leonardo da Vinci's remains are buried, and which castle is so stunning that it boasts its own UNESCO status.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Loire Castles Private Day Trip from Paris</t>
+          <t>Title: Loire Valley Castles Private Trip including Lunch from Paris</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19551P61</t>
+          <t>PRODUCTCODE: 2050P175</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Loire Valley on this comfortable day trip from Paris. Let your local guide tell your tales &amp; stories of the French Monarchy. Chambord, palace of Kings, Chenonceau, residence of Ladies, and Amboise, home of Leonardo Da Vinci.</t>
+          <t>Summarized description: Discover three majestic French Chateaux : Chambord, Cheverny and Chenonceau. Self-guided audio tour or at your leisure that includes a transfer from central Paris.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Trip from Paris with Private Local Guide &amp; Private Transportation</t>
+          <t>Title: Loire Valley Castles Day Trip with Audio Guided Option from Paris</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P26</t>
+          <t>PRODUCTCODE: 35428P5</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Live-guided Small-sized group trip for up to 7 people by Minivan to Three Top Loire Valley castles (Tickets included !): Chenonceau, Amboise and Chambord. We bring You to the local Wine producer where You can get explanations how it is being made for centuries and taste local wines.</t>
+          <t>Summarized description: Visit the magnificent Chateau of Chambord, enjoy a gourmet wine &amp; food pairing lunch at a family-run winery of the Touraine Wine region. White, red, rosé, sparkling and sweet wines, you’ll be amazed by the diversity of Loire Valley wines. This private tour includes round-trip transportation by air-conditioned car or minivan.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Live Guided 3 Loire Castles trip from Paris with Wine Tasting</t>
+          <t>Title: Loire Valley Private Day Trip with Chambord Winery Visit &amp; Lunch</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P23</t>
+          <t>PRODUCTCODE: 268293P27</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Château Chambord was built by King Francis I of France in the 15th century. Châteaux Chenonceau and Châtillon de la Loire were built in the 1500s and 1600s.</t>
+          <t>Summarized description: Private Full-day trip from Paris for 2 to 6 persons to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included ! We offer two options: Live Guided during the whole trip or Audio Guided with experienced driver only.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chateaux from Paris Private Tour</t>
+          <t>Title: Private Chenonceau, Chambord, Amboise Loire Castles from Paris</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35428P7</t>
+          <t>PRODUCTCODE: 29942P22</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the magnificent Chateau of Chambord before savouring lunch in one of the best restaurant of the region : a Michelin-starred restaurant. During the afternoon, enjoy a private visit and tasting in  one of the leading wineries. This private tour includes round-trip transportation by air-conditioned black car or minivan and a private wine expert guide.</t>
+          <t>Summarized description: Tour of the Loire valley includes a guided tour of Chenonceau and Chambord castles. Discover the double revolution staircase inspired by Leonardo Da Vinci. Lunch in the historic town of Amboise (not included) where da Vinci lived his last years.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles and Wineries Private VIP Day Trip with Lunch</t>
+          <t>Title: Loire Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P269</t>
+          <t>PRODUCTCODE: 19551P61</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line entry to Chenonceau Castle, Cheverny Castle and Chambord Castle. Majestic castles and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley.</t>
+          <t>Summarized description: Discover the Loire Valley on this comfortable day trip from Paris. Let your local guide tell your tales &amp; stories of the French Monarchy. Chambord, palace of Kings, Chenonceau, residence of Ladies, and Amboise, home of Leonardo Da Vinci.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Day Trip with 3 Castles including Chambord and Chenonceau</t>
+          <t>Title: Loire Valley Trip from Paris with Private Local Guide &amp; Private Transportation</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P3</t>
+          <t>PRODUCTCODE: 268293P26</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Travel along the king's road to Amboise, Chenanceau, and Chambord castle. We pick you up from your hotel or residence in Paris.</t>
+          <t>Summarized description: Live-guided Small-sized group trip for up to 7 people by Minivan to Three Top Loire Valley castles (Tickets included !): Chenonceau, Amboise and Chambord. We bring You to the local Wine producer where You can get explanations how it is being made for centuries and taste local wines.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Chambord, Chenonceau and Amboise Private One-Day Tour from Paris</t>
+          <t>Title: Live Guided 3 Loire Castles trip from Paris with Wine Tasting</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P11</t>
+          <t>PRODUCTCODE: 116778P23</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Royal castles are part and parcel of a romantic tour through European history. You will feel like a royal as you discover the famous castles in the world. See 3 fairytale castles in a day’s round trip from Paris, travelling in a private coach.</t>
+          <t>Summarized description: Château Chambord was built by King Francis I of France in the 15th century. Châteaux Chenonceau and Châtillon de la Loire were built in the 1500s and 1600s.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Day trip from Paris : Fairytale Loire Castles Tour (Wine Testing) </t>
+          <t>Title: Loire Valley Chateaux from Paris Private Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P281</t>
+          <t>PRODUCTCODE: 2050P269</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: The fifth centenary of Leonardo da Vinci’s death is celebrated this year. Follow in his footsteps to the magnificent Loire Valley where the genius chose to spend the last years of his life. Discover three castles of the Loire region – Clos de Luce, Chambord and Amboise. Enjoy an immersive, 3D experience with the interactive HistoPad.</t>
+          <t>Summarized description:  skip-the-line entry to Chenonceau Castle, Cheverny Castle and Chambord Castle. Majestic castles and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Leonardo DA VINCI 's Final Footsteps: Three Castles of The Loire Valley</t>
+          <t>Title: Loire Valley Day Trip with 3 Castles including Chambord and Chenonceau</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P81</t>
+          <t>PRODUCTCODE: 320547P3</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided trip for 4 to 7 clients, to Chenonceau and Chambord with Hotel Pick up option. Tickets included !Mercedes Minivan extra long with adjustable seats drives faster. You save up a lot of time.</t>
+          <t>Summarized description: Travel along the king's road to Amboise, Chenanceau, and Chambord castle. We pick you up from your hotel or residence in Paris.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Chambord — Chenonceau Loire Castles Small-group by Minivan with Wine tasting</t>
+          <t>Title: Chambord, Chenonceau and Amboise Private One-Day Tour from Paris</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P270</t>
+          <t>PRODUCTCODE: 85439P1405</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy. On summer Mondays and Sundays you’ll appreciate the glorious Amboise castle.</t>
+          <t>Summarized description: The Loire Valley is a UNESCO World Heritage-listed region. Visit a few of the region’s many castles with an audio guide at each castle.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Day Trip including Wine Tasting, Chambord and Chenonceau Castles</t>
+          <t>Title: Day Trip: Paris to Loire Valley Castles - (champagne on board)</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 101669P1</t>
+          <t>PRODUCTCODE: 239576P11</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: This private tour includes a round trip TGV train ticket from Paris. Visit the famous castles: Chambord, Chenonceau and the Clos Lucé with a local guide. Taste the delicate wines of the region.</t>
+          <t>Summarized description: Royal castles are part and parcel of a romantic tour through European history. You will feel like a royal as you discover the famous castles in the world. See 3 fairytale castles in a day’s round trip from Paris, travelling in a private coach.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Loire Valley 2 full Days private tour all inclusive from Paris by TGV train.</t>
+          <t xml:space="preserve">Title: Day trip from Paris : Fairytale Loire Castles Tour (Wine Testing) </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P58</t>
+          <t>PRODUCTCODE: 2050P281</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the majestic Castles along the heart of France’s History. Choose the three Loire Valley Sites you want to visit, to create your unique excursion. Learn with stories and anecdotes from a passionate, professional guide.</t>
+          <t>Summarized description: The fifth centenary of Leonardo da Vinci’s death is celebrated this year. Follow in his footsteps to the magnificent Loire Valley where the genius chose to spend the last years of his life. Discover three castles of the Loire region – Clos de Luce, Chambord and Amboise. Enjoy an immersive, 3D experience with the interactive HistoPad.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Customized Private Loire Valley Tour from Paris </t>
+          <t>Title: Leonardo DA VINCI 's Final Footsteps: Three Castles of The Loire Valley</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P43</t>
+          <t>PRODUCTCODE: 268293P81</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Montresor is one of the most beautiful villages in France. You will also visit the amazing castle of Chenonceau which cross the Cher River. We only offer privatized sightseeing tours. No grouping with strangers.</t>
+          <t>Summarized description: A high-quality Live-guided trip for 4 to 7 clients, to Chenonceau and Chambord with Hotel Pick up option. Tickets included !Mercedes Minivan extra long with adjustable seats drives faster. You save up a lot of time.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY : Chenonceau, Valençay &amp; Montresor ( the most beautiful village)</t>
+          <t>Title: Chambord — Chenonceau Loire Castles Small-group by Minivan with Wine tasting</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195128P1</t>
+          <t>PRODUCTCODE: 8647P378</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Travel in air-conditioned comfort to the beautiful Loire Valley. Live like French royalty for a day with local food, wine tasting and the freedom to explore three stunning châteaux.</t>
+          <t>Summarized description: Private tour includes entrance fees to Chenonceau and Clos de Lucé Palaces. Private driver will take you back to your hotel or place of choice in Paris.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Fairtale Loire Castle Tour</t>
+          <t>Title: Private Full Day Tour to Loire Valley from Paris with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P36</t>
+          <t>PRODUCTCODE: 2050P270</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into history and explore the places where Leonardo Da Vinci spent his last three years in France. Walk through his chambers, bureau and garden. Take a look at a part of his inventions rebuilt and expose through the alleys of the beautiful garden of the Clos Luce manor. Later on we'll visit the royal city of Amboise.</t>
+          <t>Summarized description: Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy. On summer Mondays and Sundays you’ll appreciate the glorious Amboise castle.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Private Trip to Loire Valley Amboise Castle and Da Vinci Manor</t>
+          <t>Title: Loire Valley Day Trip including Wine Tasting, Chambord and Chenonceau Castles</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P4</t>
+          <t>PRODUCTCODE: 105075P43</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Chambord, Cheverny and Chenonceau are the top 3 castles in the Loire Valley. All our services are privatized and without regrouping with unknown visitors.</t>
+          <t>Summarized description: Montresor is one of the most beautiful villages in France. You will also visit the amazing castle of Chenonceau which cross the Cher River. We only offer privatized sightseeing tours. No grouping with strangers.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY: Private day-trip to visit Chambord, Cheverny and Chenonceau</t>
+          <t>Title: LOIRE VALLEY : Chenonceau, Valençay &amp; Montresor ( the most beautiful village)</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P26</t>
+          <t>PRODUCTCODE: 195128P1</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: We offer you a unique 2 days / 1 night getaway that you will not find anywhere else. At your own pace, accompanied by a driver guide, you will visit four of the main chateaux in the Loire Valley. An evening in a family castle open only for you.</t>
+          <t>Summarized description: Travel in air-conditioned comfort to the beautiful Loire Valley. Live like French royalty for a day with local food, wine tasting and the freedom to explore three stunning châteaux.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: The good life : exclusive tour Loire Valley (2 days) - overnight in a castle</t>
+          <t>Title: Fairtale Loire Castle Tour</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P5</t>
+          <t>PRODUCTCODE: 105075P4</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 2 castles and medieval town. Enjoy local cheeses, charcuterie, fresh bread, and of course, more delicious wine. After the visit, we go back to Paris.</t>
+          <t>Summarized description: Chambord, Cheverny and Chenonceau are the top 3 castles in the Loire Valley. All our services are privatized and without regrouping with unknown visitors.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Trip to Loire Valley Castles with Wine Tasting</t>
+          <t>Title: LOIRE VALLEY: Private day-trip to visit Chambord, Cheverny and Chenonceau</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P22</t>
+          <t>PRODUCTCODE: 105075P26</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Discovering Loire Valley through its finest wine, vineyard and Medieval Abbey. Your guide will enlighten the medieval Fontevraud Abbey indulging you into its hidden secret. Thereafter, you will be making your way to the finest vineyard.</t>
+          <t>Summarized description: We offer you a unique 2 days / 1 night getaway that you will not find anywhere else. At your own pace, accompanied by a driver guide, you will visit four of the main chateaux in the Loire Valley. An evening in a family castle open only for you.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Fontevraud l'Abbaye with an Winetasting &amp; Lunch in a Loire Vineyard from Paris</t>
+          <t>Title: The good life : exclusive tour Loire Valley (2 days) - overnight in a castle</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P21</t>
+          <t>PRODUCTCODE: 110148P51</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
+          <t>Summarized description: Start your trip with a visit to the famous Château d'Harcourt. Then travel to the French Riviera to see some of the world's most beautiful scenery.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chambord &amp; Chenenceau Two Castles in One Day Trip from Paris</t>
+          <t>Title: Mont St. Michel, D-Day Beaches &amp; Loire Valley Castles in PRIVATE CAR from Paris</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247562P271</t>
+          <t>PRODUCTCODE: 379045P5</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a pocket of France brimming with fairytale castles and aristocratic mansions. Chambord is thought to have been partly designed by no less than Leonardo Da Vinci. Chenonceau is the residence of Diane de Poitiers and Catherine de Medici and home to a precious collection of artworks.</t>
+          <t>Summarized description: Visit 2 castles and medieval town. Enjoy local cheeses, charcuterie, fresh bread, and of course, more delicious wine. After the visit, we go back to Paris.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private tour of Loire Castles: Chambord, Amboise, Chenonceau</t>
+          <t>Title: Private Full Day Trip to Loire Valley Castles with Wine Tasting</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P347</t>
+          <t>PRODUCTCODE: 116778P22</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: The Cheverny Castle, the River-spanning Chenonceau and the extravanganza Chambord are just some of the jewels of the Loire Valley. Your journey will start from Paris by private vehicle.</t>
+          <t>Summarized description: Discovering Loire Valley through its finest wine, vineyard and Medieval Abbey. Your guide will enlighten the medieval Fontevraud Abbey indulging you into its hidden secret. Thereafter, you will be making your way to the finest vineyard.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Private Guided Day Trip with 3 Castles from Paris</t>
+          <t>Title: Fontevraud l'Abbaye with an Winetasting &amp; Lunch in a Loire Vineyard from Paris</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P14</t>
+          <t>PRODUCTCODE: 140538P21</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chenenceau &amp; Chambord - 2 Castles in One Day</t>
+          <t>Title: Loire Valley Chambord &amp; Chenenceau Two Castles in One Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P82</t>
+          <t>PRODUCTCODE: 247562P271</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided trip for 2 to 7 people to Loire Valley Castles: Blois, Chaumont &amp; Villandry. Hotel Pick up and Tickets included.</t>
+          <t>Summarized description: The Loire Valley is a pocket of France brimming with fairytale castles and aristocratic mansions. Chambord is thought to have been partly designed by no less than Leonardo Da Vinci. Chenonceau is the residence of Diane de Poitiers and Catherine de Medici and home to a precious collection of artworks.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Private Villandry, Blois, Chaumont Loire Castles Trip from Paris</t>
+          <t>Title: Private tour of Loire Castles: Chambord, Amboise, Chenonceau</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11690P11</t>
+          <t>PRODUCTCODE: 2050P347</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: France's Loire Valley is a royal region seeded by beautiful towns and villages, each of them with its own castle. It is called as well the "Garden of France" due to the abundance of vineyards, gardens, fruit orchards and cherry fields.</t>
+          <t>Summarized description: The Cheverny Castle, the River-spanning Chenonceau and the extravanganza Chambord are just some of the jewels of the Loire Valley. Your journey will start from Paris by private vehicle.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Private day tour to Loire Valley castles from Paris</t>
+          <t>Title: Loire Valley Private Guided Day Trip with 3 Castles from Paris</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225787P4</t>
+          <t>PRODUCTCODE: 66049P14</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: We promise you a unique experience: Your tour is totally private, with a personal guide and a personal driver dedicated to you. Chambord and its decadent Garden- the Beautiful and mysterious Chennonceau- and last but not least the royal castle of Amboise.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Unforgettable Loire Valley VIP tour (from Paris) - Tree castles in one day!</t>
+          <t>Title: Loire Valley Chenenceau &amp; Chambord - 2 Castles in One Day</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P11</t>
+          <t>PRODUCTCODE: 268293P83</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is home to 25 palaces built by the kings of France. The most famous of the palaces are the Chambord Palace and the Château de Chenonceau.</t>
+          <t>Summarized description: A high-quality live-guided Private experience for 2 to 7 peoples to Chenonceau, Chambord and Leonardo da Vinci Clos Luce Castle. The duration of the tour is 13 hours (longer as usual)</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Private Loire Valley Castles with Minivan</t>
+          <t>Title: Private Chambord, Chenonceau, Da Vinci Clos Lucé Trip from Paris</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 152134P4</t>
+          <t>PRODUCTCODE: 137600P37</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley was listed in the year 2000 by UNESCO World Heritage. Located approximately 200 kilometers from Paris, the Renaissance nobility chose the place to build their sumptuous castles.</t>
+          <t>Summarized description: The Loire Valley is a jewel in the UNESCO World Heritage collection. In the valley there are about 1000 castles. Among their diversity we highly recommend to visit: Chambord, Chenonceau, Amboise.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Visit to the Castles of the Loire Valley</t>
+          <t>Title: Excursion to Loire Castles. Comfortable minibus! Ticket and audioguide included!</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 208552P3</t>
+          <t>PRODUCTCODE: 11690P11</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: More than 50 monuments of culture and architecture have survived to our time. The most famous are the castles of Chambord, Chenonceau, Amboise and Blois.</t>
+          <t>Summarized description: France's Loire Valley is a royal region seeded by beautiful towns and villages, each of them with its own castle. It is called as well the "Garden of France" due to the abundance of vineyards, gardens, fruit orchards and cherry fields.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: A trip to the Loire Valley from Paris</t>
+          <t>Title: Private day tour to Loire Valley castles from Paris</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137600P13</t>
+          <t>PRODUCTCODE: 225787P4</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley has preserved more than 1000 ancient castles and residences. During the one-day excursion you will visit three amazing castles with their unique history and ancient interiors.</t>
+          <t>Summarized description: We promise you a unique experience: Your tour is totally private, with a personal guide and a personal driver dedicated to you. Chambord and its decadent Garden- the Beautiful and mysterious Chennonceau- and last but not least the royal castle of Amboise.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Guided tour of the Loire Castles. Transfer included</t>
+          <t>Title: Unforgettable Loire Valley VIP tour (from Paris) - Tree castles in one day!</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186490P5</t>
+          <t>PRODUCTCODE: 137600P13</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: No train ( you 'll be pick up at your front door downtown Paris ; after a 2 and 1/2 Hr drive we'll reach the 1st chateau ( Chambord ) Your qualified tour guide ( who is also your driver ) will guide you inside the castle ( you won't be left on your own ) so that you can learn much more about French History and about the chateaus itself. After a lunch in a little pitturesque village ,in a restaurant recommended by your guide, you'll visit (still with your private guide ) the charming chatesau of Chenonceau. If time permits ,you guide can also arrange a wine tasting during your day in the Loire region.</t>
+          <t>Summarized description: The Loire Valley has preserved more than 1000 ancient castles and residences. During the one-day excursion you will visit three amazing castles with their unique history and ancient interiors.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Castles Of The Loire By Private Car From Paris With An Official Tour Guide </t>
+          <t>Title: Guided tour of the Loire Castles. Transfer included</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420369P5</t>
+          <t>PRODUCTCODE: 186490P5</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Take a luxurious air-conditioned bus to the Loire Valley and spend the day like French royalty there. Visit the charming town of Blois and two magnificent castles. Take a tour and sample some regional wine.</t>
+          <t>Summarized description: No train ( you 'll be pick up at your front door downtown Paris ; after a 2 and 1/2 Hr drive we'll reach the 1st chateau ( Chambord ) Your qualified tour guide ( who is also your driver ) will guide you inside the castle ( you won't be left on your own ) so that you can learn much more about French History and about the chateaus itself. After a lunch in a little pitturesque village ,in a restaurant recommended by your guide, you'll visit (still with your private guide ) the charming chatesau of Chenonceau. If time permits ,you guide can also arrange a wine tasting during your day in the Loire region.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour with Transportation from Paris</t>
+          <t xml:space="preserve">Title: The Castles Of The Loire By Private Car From Paris With An Official Tour Guide </t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P304</t>
+          <t>PRODUCTCODE: 420369P5</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy convenient roundtrip transfers from Paris in a luxury, air-conditioned coach. Visit the famous Loire Valley castles with an knowledgeable guide or audio guide.</t>
+          <t>Summarized description: Take a luxurious air-conditioned bus to the Loire Valley and spend the day like French royalty there. Visit the charming town of Blois and two magnificent castles. Take a tour and sample some regional wine.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
+          <t>Title: Loire Valley Castles Guided Tour with Transportation from Paris</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15619P5</t>
+          <t>PRODUCTCODE: 105075P18</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is a UNESCO World Heritage site erected by King Francis I. The Loire Valley is home to three of the area's famous Renaissance-era castles.</t>
+          <t>Summarized description: From April 04th to September 30th, 2019, you will attend in addition to the visit of the castle of Chambord to a real tournament show of Knights and raptors. Visit continues to Chateau de Cheverny with the permanent exhibition on TINTIN, the famous character of Hergé.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Private Loire Valley Day Trip from Paris with Guide</t>
+          <t>Title: LOIRE VALLEY : CHAMBORD for KIDS (and Cheverny) - Private day trip from PARIS</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435310P2</t>
+          <t>PRODUCTCODE: 88115P304</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: The Châteaux of Chambord, Chenonceau, and Amboise are located in the Loire Valley. The 2-hour journey begins at your hotel in Paris. Your personal guide-chauffeur will fine-tune the smallest details of the tour.</t>
+          <t>Summarized description: Enjoy convenient roundtrip transfers from Paris in a luxury, air-conditioned coach. Visit the famous Loire Valley castles with an knowledgeable guide or audio guide.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Emblematic Castles Private Tour with Antoine</t>
+          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P591</t>
+          <t>PRODUCTCODE: 5544MBP7</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of the Loire Valley and visit the Chambord and Chenonceau Castles in one day. Experience a real fairytale and immerse yourself in French history, culture and art.</t>
+          <t>Summarized description: Chenonceau Castle and the Chateau de Chambord are located in the Loire Valley. Take a day tour from Paris to visit the famous chateaux.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Château de Chambord &amp; Chenonceau from Paris by Car</t>
+          <t>Title: Deluxe Loire Valley Castles Day Trip from Paris with Japanese Guide</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P268</t>
+          <t>PRODUCTCODE: 145071P88</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic castles, famous wines and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley. Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy.</t>
+          <t>Summarized description: Three of the most breathtaking Loire Valley castles including Chateau de Chambord. Lunch and wine tasting at Nitray plus an optional wine tasting. Round trip transport from Paris by private air-conditioned coach.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Day Tour Loire Valley with 3 Castles (Pick up included)</t>
+          <t>Title: Loire Valley Castles Tour from Paris with Lunch and Wine Tasting</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P86</t>
+          <t>PRODUCTCODE: 332536P591</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided trip for 4 to 6 people to Loire Valley Castles: Chenonceau, Chaumont &amp; Blois, tickets included. The duration is 13 hours - longer as usual.</t>
+          <t>Summarized description: Discover the wonders of the Loire Valley and visit the Chambord and Chenonceau Castles in one day. Experience a real fairytale and immerse yourself in French history, culture and art.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Chenonceau, Blois, Chaumont Loire Castles Small-group from Paris</t>
+          <t>Title: Château de Chambord &amp; Chenonceau from Paris by Car</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 91672P70</t>
+          <t>PRODUCTCODE: 2050P268</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 3 magnificent castles in the Loire Valley at your own pace and with easy coach transport. Learn about the lives of the Kings of France and the Renaissance period.</t>
+          <t>Summarized description: Majestic castles, famous wines and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley. Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
+          <t>Title: Day Tour Loire Valley with 3 Castles (Pick up included)</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 258697P1</t>
+          <t>PRODUCTCODE: 91672P70</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the French Renaissance style with the 16th century Chambord castle. You will be seduced by the unique architecture of the castle and also with its rich collection of paintings and furniture.</t>
+          <t>Summarized description: Visit 3 magnificent castles in the Loire Valley at your own pace and with easy coach transport. Learn about the lives of the Kings of France and the Renaissance period.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles private tour from Paris</t>
+          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 69834P3</t>
+          <t>PRODUCTCODE: 110148P45</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Renaissance castles along the Loire, Chambord and Cheverny rivers. First visit is to ChambORD, the first that Carlos fifth visited with his court in 1539. We will eat in Chambords (menu not included), and we will continue in ChevernY, 17th century castle.</t>
+          <t>Summarized description: The Loire Valley is referred to as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. Travel to the city of Tours in a comfortable private car (with all sanitary measures)</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Private tour in Chambord and Cheverny with pick up at your hotel in Paris region</t>
+          <t>Title: Visit the Loire Valley Castles in 1-Day Tour from Paris by PRIVATE CAR</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 171266P2</t>
+          <t>PRODUCTCODE: 218758P4</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley was favorite residence of the Kings of France during the Renaissance. Visit the Chateau de Chambord and Chateaux de Chennonceau, the two most iconic castles in the region.</t>
+          <t>Summarized description: The Loire Valley Region is located at 100 miles far from Paris. It is called the ‘Valley of the Kings’ as this valley was much loved by the Kings of France. There are 25 palaces built by the kings and embellished with parks and gardens.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Private Full-Day Loire Valley Castles Tour from Paris</t>
+          <t>Title: Private Loire Valley Castles with Minivan</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P46</t>
+          <t>PRODUCTCODE: 10913P5</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: France's Loire Valley is a UNESCO World Heritage Site. Châteaux include VILLANDRY, CHENONCEAU and AMBOISE. Zoo PARC of BEAUVAL is home to more than 10,000 animals.</t>
+          <t>Summarized description: A 12-hour tour to visit 3 castles. The relevant ones are Amboise, Chambord and Chenonceau. There is also the possibility to visit some other ones like Blois or Cheverny.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Loire Valley castles and Panda Zoo in 2-Day Tour from Paris by PRIVATE CAR</t>
+          <t>Title: Loire Valley Full Day Private Guided Tour wih Hotel Pickup</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P90</t>
+          <t>PRODUCTCODE: 282284P1</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided 2-day Private Experience with Hotel pick up for 2 to 6 clients to 6 Top Loire Valley castles. Tickets included: Chambord, Amboise, Clos Luce, Chenonceau, Chaumont, Blois.</t>
+          <t>Summarized description: Chateau d'Amboise, the Chateau de Chenonceau and the ChATEau de Chambord are among the castles in the region. Learn about Renaissance architecture and historical figures who once lived in or spent time in these stunning royal residences.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title:  2-day Private Loire 6 Castles trip by Minivan with Wine tasting</t>
+          <t>Title: Private Day Tour of the Loire Valley Castles from Paris</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P45</t>
+          <t>PRODUCTCODE: 239576P13</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is referred to as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. Travel to the city of Tours in a comfortable private car (with all sanitary measures)</t>
+          <t>Summarized description: Explore the medieval city, its chateaux, and more on a scenic road trip by car. This picturesque experience will take you to the cities of Chambord, Blois, Amboise, and Chenonceau.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Visit the Loire Valley Castles in 1-Day Tour from Paris by PRIVATE CAR</t>
+          <t>Title: Paris Premium : Loire Valley Castles Private Day trip (Transportations included)</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P4</t>
+          <t>PRODUCTCODE: 175581P43</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley Region is located at 100 miles far from Paris. It is called the ‘Valley of the Kings’ as this valley was much loved by the Kings of France. There are 25 palaces built by the kings and embellished with parks and gardens.</t>
+          <t>Summarized description: Château de Chambord is said to be the inspiration for the castle in Disney’s ‘Beauty and the Beast’ Enjoy a home-cooked meal, a generous wine tasting, and a relaxed tour of the property.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Private Loire Valley Castles with Minivan</t>
+          <t>Title: Loire Valley Castles Day Trip from Paris with Wine Tasting + SKIP THE LINE</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 69834P21</t>
+          <t>PRODUCTCODE: 115705P10</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: The Château de Vincennes is a must see in the Paris region. Its history began in the 12th century, when Louis VII decided to build a hunting lodge. King Charles V built a vast wall, towers and an over 50-metre tall keep in the 14th century.</t>
+          <t>Summarized description: The Château de Chenonceau is one of the biggest castles in the Loire Valley. It is located on the banks of the River Loire, near the village of Chambord.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Middle Ages day-trip with 2 castles around Paris</t>
+          <t>Title: Loire Castles Tour From Paris</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P31</t>
+          <t>PRODUCTCODE: 118524P13</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: A very comprehensive tour including architecture, history, art, gardens &amp; horses. Visit one of the greatest French castles with your private lecturer guide.</t>
+          <t>Summarized description: Marvel in front of the Loire castles with your personal knowledgeable and lively private guide. Whether you are a couple, a group of friends, or with your extended family, you will enjoy a unique visit. This private tour is 100% customizable.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Full-Day Private Chantilly Castle Tour from Paris</t>
+          <t>Title: Loire Valley Castles Private Tour From Paris/skip-the-line ticket</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10913P5</t>
+          <t>PRODUCTCODE: 24124P10</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: A 12-hour tour to visit 3 castles. The relevant ones are Amboise, Chambord and Chenonceau. There is also the possibility to visit some other ones like Blois or Cheverny.</t>
+          <t>Summarized description: Tour three of the major castles in the UNESCO World Heritage–listed region. Tour the inside of the three castles with a private guide, who shares insight about the architecture and history.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Full Day Private Guided Tour wih Hotel Pickup</t>
+          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 282284P1</t>
+          <t>PRODUCTCODE: 105075P15</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Chateau d'Amboise, the Chateau de Chenonceau and the ChATEau de Chambord are among the castles in the region. Learn about Renaissance architecture and historical figures who once lived in or spent time in these stunning royal residences.</t>
+          <t>Summarized description: Non-golfers will be able to visit the Chateau de Cheverny at their own pace while you play the 18 holes of the ChevernY Golf Club.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Private Day Tour of the Loire Valley Castles from Paris</t>
+          <t>Title: LOIRE VALLEY : Play golf and visit Chambord and Cheverny (1 Day-trip from PARIS)</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P13</t>
+          <t>PRODUCTCODE: 110148P30</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the medieval city, its chateaux, and more on a scenic road trip by car. This picturesque experience will take you to the cities of Chambord, Blois, Amboise, and Chenonceau.</t>
+          <t>Summarized description: The Loire Valley is known as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. You will have a guided visit of three Châteaux, especially known for its beautiful gardens. At the end of the day return to Paris in the Bullet train.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Paris Premium : Loire Valley Castles Private Day trip (Transportations included)</t>
+          <t>Title: Loire Valley Castles Private 1-Day Tour from Paris by Train &amp; Minivan</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175581P43</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20329,681 +20329,6 @@
       <c r="H1322" t="inlineStr"/>
       <c r="I1322" t="inlineStr"/>
     </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Summarized description: Château de Chambord is said to be the inspiration for the castle in Disney’s ‘Beauty and the Beast’ Enjoy a home-cooked meal, a generous wine tasting, and a relaxed tour of the property.</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Day Trip from Paris with Wine Tasting + SKIP THE LINE</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 115705P10</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Summarized description: The Château de Chenonceau is one of the biggest castles in the Loire Valley. It is located on the banks of the River Loire, near the village of Chambord.</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Title: Loire Castles Tour From Paris</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 268293P104</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Summarized description: Small-group trip for 2 to 7 people to 6 Top Loire Valley castles. Hotel Accommodation at 3* or 4* Hotel due to Your choice included. Guided visits with Tickets to the Castles: Chateau de Chambord.</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Title: 2-day Loire Valley 6 Castles Small-group from Paris, Wine tasting</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 118524P13</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Summarized description: Marvel in front of the Loire castles with your personal knowledgeable and lively private guide. Whether you are a couple, a group of friends, or with your extended family, you will enjoy a unique visit. This private tour is 100% customizable.</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Private Tour From Paris/skip-the-line ticket</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24124P10</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour three of the major castles in the UNESCO World Heritage–listed region. Tour the inside of the three castles with a private guide, who shares insight about the architecture and history.</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 110148P30</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Summarized description: The Loire Valley is known as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. You will have a guided visit of three Châteaux, especially known for its beautiful gardens. At the end of the day return to Paris in the Bullet train.</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Private 1-Day Tour from Paris by Train &amp; Minivan</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 268293P71</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Summarized description: 2-day Private Live-guided trip from Paris to Mont Saint-Michel, Normandy’s capital Rouen, Medieval harbour-city Honfleur and Top 3 Loire Valley Castles: Chambord, Chenonceau and Amboise. Hotel Pick up &amp; Drop off. Double Room accommodation with breakfast for one night at a 3*+/4* Hotel. Mercedes E220 business class car for 2-3 people or Mercedes Minivan for 3-7 participants.</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr"/>
-      <c r="I1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>Title: 2-day Private Mont Saint-Michel, Normandy Express 3 Loire Castles</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr"/>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr"/>
-      <c r="I1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr"/>
-      <c r="I1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr"/>
-      <c r="I1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6839P31</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
-      <c r="I1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>Summarized description: The Chateau de Chambord is the largest Renaissance castle of the Loire Valley. With your HistoPad, you will experience an immersive tour of the castle as it was during the time of François I.</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr"/>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr"/>
-      <c r="E1358" t="inlineStr"/>
-      <c r="F1358" t="inlineStr"/>
-      <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr"/>
-      <c r="I1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>Title: Chambord: Full-Day Château of Chambord Tour with HistoPad</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr"/>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr"/>
-      <c r="E1359" t="inlineStr"/>
-      <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr"/>
-      <c r="I1359" t="inlineStr"/>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr"/>
-      <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr"/>
-      <c r="I1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr"/>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr"/>
-      <c r="E1361" t="inlineStr"/>
-      <c r="F1361" t="inlineStr"/>
-      <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr"/>
-      <c r="I1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 268293P116</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr"/>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr"/>
-      <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr"/>
-      <c r="I1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>Summarized description: 2-day Live-guided Small Group trip for max 7 people from Paris to Mont Saint-Michel. Express D-Day with 3 most popular Omaha sights and 3 Top Loire Valley castles Full Guided visits. Hotel Pick up &amp; Drop off. Guaranteed departures.</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr"/>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr"/>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr"/>
-      <c r="I1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>Title: 2-day M.St-Michel, D-Day, 3 Loire Castles Small-group from Paris</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr"/>
-      <c r="I1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr"/>
-      <c r="I1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1366" t="inlineStr"/>
-      <c r="C1366" t="inlineStr"/>
-      <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
-      <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr"/>
-      <c r="I1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/9511P25.xlsx
+++ b/experiment_results/9511P25.xlsx
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals', 'Historical Tours']</t>
+          <t>Category: ['Cultural Festivals', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14271,7 +14271,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wildlife Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14871,7 +14871,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P22</t>
+          <t>PRODUCTCODE: 2050P269</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Tour of the Loire valley includes a guided tour of Chenonceau and Chambord castles. Discover the double revolution staircase inspired by Leonardo Da Vinci. Lunch in the historic town of Amboise (not included) where da Vinci lived his last years.</t>
+          <t>Summarized description:  skip-the-line entry to Chenonceau Castle, Cheverny Castle and Chambord Castle. Majestic castles and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Loire Castles Private Day Trip from Paris</t>
+          <t>Title: Loire Valley Day Trip with 3 Castles including Chambord and Chenonceau</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19551P61</t>
+          <t>PRODUCTCODE: 320547P3</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Loire Valley on this comfortable day trip from Paris. Let your local guide tell your tales &amp; stories of the French Monarchy. Chambord, palace of Kings, Chenonceau, residence of Ladies, and Amboise, home of Leonardo Da Vinci.</t>
+          <t>Summarized description: Travel along the king's road to Amboise, Chenanceau, and Chambord castle. We pick you up from your hotel or residence in Paris.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Trip from Paris with Private Local Guide &amp; Private Transportation</t>
+          <t>Title: Chambord, Chenonceau and Amboise Private One-Day Tour from Paris</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P26</t>
+          <t>PRODUCTCODE: 85439P1405</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Live-guided Small-sized group trip for up to 7 people by Minivan to Three Top Loire Valley castles (Tickets included !): Chenonceau, Amboise and Chambord. We bring You to the local Wine producer where You can get explanations how it is being made for centuries and taste local wines.</t>
+          <t>Summarized description: The Loire Valley is a UNESCO World Heritage-listed region. Visit a few of the region’s many castles with an audio guide at each castle.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Live Guided 3 Loire Castles trip from Paris with Wine Tasting</t>
+          <t>Title: Day Trip: Paris to Loire Valley Castles - (champagne on board)</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P23</t>
+          <t>PRODUCTCODE: 10913P7</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Château Chambord was built by King Francis I of France in the 15th century. Châteaux Chenonceau and Châtillon de la Loire were built in the 1500s and 1600s.</t>
+          <t>Summarized description: The Loire Valley is a scenic region known for its wine and stunning French châteaux. With a private guide, you'll learn about the lifestyle, art, architecture and politics of the historical period.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chateaux from Paris Private Tour</t>
+          <t>Title: Loire Valley Full-Day Private Guided Tour with Hotel Pickup</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P269</t>
+          <t>PRODUCTCODE: 239576P11</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line entry to Chenonceau Castle, Cheverny Castle and Chambord Castle. Majestic castles and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley.</t>
+          <t>Summarized description: Royal castles are part and parcel of a romantic tour through European history. You will feel like a royal as you discover the famous castles in the world. See 3 fairytale castles in a day’s round trip from Paris, travelling in a private coach.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Day Trip with 3 Castles including Chambord and Chenonceau</t>
+          <t xml:space="preserve">Title: Day trip from Paris : Fairytale Loire Castles Tour (Wine Testing) </t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P3</t>
+          <t>PRODUCTCODE: 2050P281</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Travel along the king's road to Amboise, Chenanceau, and Chambord castle. We pick you up from your hotel or residence in Paris.</t>
+          <t>Summarized description: The fifth centenary of Leonardo da Vinci’s death is celebrated this year. Follow in his footsteps to the magnificent Loire Valley where the genius chose to spend the last years of his life. Discover three castles of the Loire region – Clos de Luce, Chambord and Amboise. Enjoy an immersive, 3D experience with the interactive HistoPad.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Chambord, Chenonceau and Amboise Private One-Day Tour from Paris</t>
+          <t>Title: Leonardo DA VINCI 's Final Footsteps: Three Castles of The Loire Valley</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85439P1405</t>
+          <t>PRODUCTCODE: 268293P81</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a UNESCO World Heritage-listed region. Visit a few of the region’s many castles with an audio guide at each castle.</t>
+          <t>Summarized description: A high-quality Live-guided trip for 4 to 7 clients, to Chenonceau and Chambord with Hotel Pick up option. Tickets included !Mercedes Minivan extra long with adjustable seats drives faster. You save up a lot of time.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Day Trip: Paris to Loire Valley Castles - (champagne on board)</t>
+          <t>Title: Chambord — Chenonceau Loire Castles Small-group by Minivan with Wine tasting</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P11</t>
+          <t>PRODUCTCODE: 8647P378</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Royal castles are part and parcel of a romantic tour through European history. You will feel like a royal as you discover the famous castles in the world. See 3 fairytale castles in a day’s round trip from Paris, travelling in a private coach.</t>
+          <t>Summarized description: Private tour includes entrance fees to Chenonceau and Clos de Lucé Palaces. Private driver will take you back to your hotel or place of choice in Paris.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Day trip from Paris : Fairytale Loire Castles Tour (Wine Testing) </t>
+          <t>Title: Private Full Day Tour to Loire Valley from Paris with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P281</t>
+          <t>PRODUCTCODE: 2050P270</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: The fifth centenary of Leonardo da Vinci’s death is celebrated this year. Follow in his footsteps to the magnificent Loire Valley where the genius chose to spend the last years of his life. Discover three castles of the Loire region – Clos de Luce, Chambord and Amboise. Enjoy an immersive, 3D experience with the interactive HistoPad.</t>
+          <t>Summarized description: Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy. On summer Mondays and Sundays you’ll appreciate the glorious Amboise castle.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Leonardo DA VINCI 's Final Footsteps: Three Castles of The Loire Valley</t>
+          <t>Title: Loire Valley Day Trip including Wine Tasting, Chambord and Chenonceau Castles</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P81</t>
+          <t>PRODUCTCODE: 105075P43</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided trip for 4 to 7 clients, to Chenonceau and Chambord with Hotel Pick up option. Tickets included !Mercedes Minivan extra long with adjustable seats drives faster. You save up a lot of time.</t>
+          <t>Summarized description: Montresor is one of the most beautiful villages in France. You will also visit the amazing castle of Chenonceau which cross the Cher River. We only offer privatized sightseeing tours. No grouping with strangers.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Chambord — Chenonceau Loire Castles Small-group by Minivan with Wine tasting</t>
+          <t>Title: LOIRE VALLEY : Chenonceau, Valençay &amp; Montresor ( the most beautiful village)</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P378</t>
+          <t>PRODUCTCODE: 195128P1</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour includes entrance fees to Chenonceau and Clos de Lucé Palaces. Private driver will take you back to your hotel or place of choice in Paris.</t>
+          <t>Summarized description: Travel in air-conditioned comfort to the beautiful Loire Valley. Live like French royalty for a day with local food, wine tasting and the freedom to explore three stunning châteaux.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Tour to Loire Valley from Paris with Hotel Pick Up</t>
+          <t>Title: Fairtale Loire Castle Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P270</t>
+          <t>PRODUCTCODE: 105075P4</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy. On summer Mondays and Sundays you’ll appreciate the glorious Amboise castle.</t>
+          <t>Summarized description: Chambord, Cheverny and Chenonceau are the top 3 castles in the Loire Valley. All our services are privatized and without regrouping with unknown visitors.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Day Trip including Wine Tasting, Chambord and Chenonceau Castles</t>
+          <t>Title: LOIRE VALLEY: Private day-trip to visit Chambord, Cheverny and Chenonceau</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P43</t>
+          <t>PRODUCTCODE: 110148P51</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Montresor is one of the most beautiful villages in France. You will also visit the amazing castle of Chenonceau which cross the Cher River. We only offer privatized sightseeing tours. No grouping with strangers.</t>
+          <t>Summarized description: Start your trip with a visit to the famous Château d'Harcourt. Then travel to the French Riviera to see some of the world's most beautiful scenery.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY : Chenonceau, Valençay &amp; Montresor ( the most beautiful village)</t>
+          <t>Title: Mont St. Michel, D-Day Beaches &amp; Loire Valley Castles in PRIVATE CAR from Paris</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195128P1</t>
+          <t>PRODUCTCODE: 379045P5</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Travel in air-conditioned comfort to the beautiful Loire Valley. Live like French royalty for a day with local food, wine tasting and the freedom to explore three stunning châteaux.</t>
+          <t>Summarized description: Visit 2 castles and medieval town. Enjoy local cheeses, charcuterie, fresh bread, and of course, more delicious wine. After the visit, we go back to Paris.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Fairtale Loire Castle Tour</t>
+          <t>Title: Private Full Day Trip to Loire Valley Castles with Wine Tasting</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P4</t>
+          <t>PRODUCTCODE: 140538P21</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Chambord, Cheverny and Chenonceau are the top 3 castles in the Loire Valley. All our services are privatized and without regrouping with unknown visitors.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY: Private day-trip to visit Chambord, Cheverny and Chenonceau</t>
+          <t>Title: Loire Valley Chambord &amp; Chenenceau Two Castles in One Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P26</t>
+          <t>PRODUCTCODE: 247562P271</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: We offer you a unique 2 days / 1 night getaway that you will not find anywhere else. At your own pace, accompanied by a driver guide, you will visit four of the main chateaux in the Loire Valley. An evening in a family castle open only for you.</t>
+          <t>Summarized description: The Loire Valley is a pocket of France brimming with fairytale castles and aristocratic mansions. Chambord is thought to have been partly designed by no less than Leonardo Da Vinci. Chenonceau is the residence of Diane de Poitiers and Catherine de Medici and home to a precious collection of artworks.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: The good life : exclusive tour Loire Valley (2 days) - overnight in a castle</t>
+          <t>Title: Private tour of Loire Castles: Chambord, Amboise, Chenonceau</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P51</t>
+          <t>PRODUCTCODE: 2050P347</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Start your trip with a visit to the famous Château d'Harcourt. Then travel to the French Riviera to see some of the world's most beautiful scenery.</t>
+          <t>Summarized description: The Cheverny Castle, the River-spanning Chenonceau and the extravanganza Chambord are just some of the jewels of the Loire Valley. Your journey will start from Paris by private vehicle.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Mont St. Michel, D-Day Beaches &amp; Loire Valley Castles in PRIVATE CAR from Paris</t>
+          <t>Title: Loire Valley Private Guided Day Trip with 3 Castles from Paris</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P5</t>
+          <t>PRODUCTCODE: 66049P14</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 2 castles and medieval town. Enjoy local cheeses, charcuterie, fresh bread, and of course, more delicious wine. After the visit, we go back to Paris.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Trip to Loire Valley Castles with Wine Tasting</t>
+          <t>Title: Loire Valley Chenenceau &amp; Chambord - 2 Castles in One Day</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 116778P22</t>
+          <t>PRODUCTCODE: 268293P83</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Discovering Loire Valley through its finest wine, vineyard and Medieval Abbey. Your guide will enlighten the medieval Fontevraud Abbey indulging you into its hidden secret. Thereafter, you will be making your way to the finest vineyard.</t>
+          <t>Summarized description: A high-quality live-guided Private experience for 2 to 7 peoples to Chenonceau, Chambord and Leonardo da Vinci Clos Luce Castle. The duration of the tour is 13 hours (longer as usual)</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Fontevraud l'Abbaye with an Winetasting &amp; Lunch in a Loire Vineyard from Paris</t>
+          <t>Title: Private Chambord, Chenonceau, Da Vinci Clos Lucé Trip from Paris</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P21</t>
+          <t>PRODUCTCODE: 137600P37</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
+          <t>Summarized description: The Loire Valley is a jewel in the UNESCO World Heritage collection. In the valley there are about 1000 castles. Among their diversity we highly recommend to visit: Chambord, Chenonceau, Amboise.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chambord &amp; Chenenceau Two Castles in One Day Trip from Paris</t>
+          <t>Title: Excursion to Loire Castles. Comfortable minibus! Ticket and audioguide included!</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247562P271</t>
+          <t>PRODUCTCODE: 11690P11</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a pocket of France brimming with fairytale castles and aristocratic mansions. Chambord is thought to have been partly designed by no less than Leonardo Da Vinci. Chenonceau is the residence of Diane de Poitiers and Catherine de Medici and home to a precious collection of artworks.</t>
+          <t>Summarized description: France's Loire Valley is a royal region seeded by beautiful towns and villages, each of them with its own castle. It is called as well the "Garden of France" due to the abundance of vineyards, gardens, fruit orchards and cherry fields.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Private tour of Loire Castles: Chambord, Amboise, Chenonceau</t>
+          <t>Title: Private day tour to Loire Valley castles from Paris</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P347</t>
+          <t>PRODUCTCODE: 225787P4</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: The Cheverny Castle, the River-spanning Chenonceau and the extravanganza Chambord are just some of the jewels of the Loire Valley. Your journey will start from Paris by private vehicle.</t>
+          <t>Summarized description: We promise you a unique experience: Your tour is totally private, with a personal guide and a personal driver dedicated to you. Chambord and its decadent Garden- the Beautiful and mysterious Chennonceau- and last but not least the royal castle of Amboise.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Private Guided Day Trip with 3 Castles from Paris</t>
+          <t>Title: Unforgettable Loire Valley VIP tour (from Paris) - Tree castles in one day!</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P14</t>
+          <t>PRODUCTCODE: 137600P13</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
+          <t>Summarized description: The Loire Valley has preserved more than 1000 ancient castles and residences. During the one-day excursion you will visit three amazing castles with their unique history and ancient interiors.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chenenceau &amp; Chambord - 2 Castles in One Day</t>
+          <t>Title: Guided tour of the Loire Castles. Transfer included</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P83</t>
+          <t>PRODUCTCODE: 186490P5</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality live-guided Private experience for 2 to 7 peoples to Chenonceau, Chambord and Leonardo da Vinci Clos Luce Castle. The duration of the tour is 13 hours (longer as usual)</t>
+          <t>Summarized description: No train ( you 'll be pick up at your front door downtown Paris ; after a 2 and 1/2 Hr drive we'll reach the 1st chateau ( Chambord ) Your qualified tour guide ( who is also your driver ) will guide you inside the castle ( you won't be left on your own ) so that you can learn much more about French History and about the chateaus itself. After a lunch in a little pitturesque village ,in a restaurant recommended by your guide, you'll visit (still with your private guide ) the charming chatesau of Chenonceau. If time permits ,you guide can also arrange a wine tasting during your day in the Loire region.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Private Chambord, Chenonceau, Da Vinci Clos Lucé Trip from Paris</t>
+          <t xml:space="preserve">Title: The Castles Of The Loire By Private Car From Paris With An Official Tour Guide </t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137600P37</t>
+          <t>PRODUCTCODE: 420369P5</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a jewel in the UNESCO World Heritage collection. In the valley there are about 1000 castles. Among their diversity we highly recommend to visit: Chambord, Chenonceau, Amboise.</t>
+          <t>Summarized description: Take a luxurious air-conditioned bus to the Loire Valley and spend the day like French royalty there. Visit the charming town of Blois and two magnificent castles. Take a tour and sample some regional wine.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Excursion to Loire Castles. Comfortable minibus! Ticket and audioguide included!</t>
+          <t>Title: Loire Valley Castles Guided Tour with Transportation from Paris</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11690P11</t>
+          <t>PRODUCTCODE: 105075P18</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: France's Loire Valley is a royal region seeded by beautiful towns and villages, each of them with its own castle. It is called as well the "Garden of France" due to the abundance of vineyards, gardens, fruit orchards and cherry fields.</t>
+          <t>Summarized description: From April 04th to September 30th, 2019, you will attend in addition to the visit of the castle of Chambord to a real tournament show of Knights and raptors. Visit continues to Chateau de Cheverny with the permanent exhibition on TINTIN, the famous character of Hergé.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Private day tour to Loire Valley castles from Paris</t>
+          <t>Title: LOIRE VALLEY : CHAMBORD for KIDS (and Cheverny) - Private day trip from PARIS</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225787P4</t>
+          <t>PRODUCTCODE: 222897P27</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: We promise you a unique experience: Your tour is totally private, with a personal guide and a personal driver dedicated to you. Chambord and its decadent Garden- the Beautiful and mysterious Chennonceau- and last but not least the royal castle of Amboise.</t>
+          <t>Summarized description: Loire Valley is a jewel in the UNESCO World Heritage collection. In the valley there are about 1000 castles. Among their diversity we highly recommend to visit Chambord, Chenonceau, Amboise.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Unforgettable Loire Valley VIP tour (from Paris) - Tree castles in one day!</t>
+          <t>Title: Private 12-hour round transfer to Loire Castles from Paris. Best offer!</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137600P13</t>
+          <t>PRODUCTCODE: 88115P304</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley has preserved more than 1000 ancient castles and residences. During the one-day excursion you will visit three amazing castles with their unique history and ancient interiors.</t>
+          <t>Summarized description: Enjoy convenient roundtrip transfers from Paris in a luxury, air-conditioned coach. Visit the famous Loire Valley castles with an knowledgeable guide or audio guide.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Guided tour of the Loire Castles. Transfer included</t>
+          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186490P5</t>
+          <t>PRODUCTCODE: 5544MBP7</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: No train ( you 'll be pick up at your front door downtown Paris ; after a 2 and 1/2 Hr drive we'll reach the 1st chateau ( Chambord ) Your qualified tour guide ( who is also your driver ) will guide you inside the castle ( you won't be left on your own ) so that you can learn much more about French History and about the chateaus itself. After a lunch in a little pitturesque village ,in a restaurant recommended by your guide, you'll visit (still with your private guide ) the charming chatesau of Chenonceau. If time permits ,you guide can also arrange a wine tasting during your day in the Loire region.</t>
+          <t>Summarized description: Chenonceau Castle and the Chateau de Chambord are located in the Loire Valley. Take a day tour from Paris to visit the famous chateaux.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Castles Of The Loire By Private Car From Paris With An Official Tour Guide </t>
+          <t>Title: Deluxe Loire Valley Castles Day Trip from Paris with Japanese Guide</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420369P5</t>
+          <t>PRODUCTCODE: 145071P88</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Take a luxurious air-conditioned bus to the Loire Valley and spend the day like French royalty there. Visit the charming town of Blois and two magnificent castles. Take a tour and sample some regional wine.</t>
+          <t>Summarized description: Three of the most breathtaking Loire Valley castles including Chateau de Chambord. Lunch and wine tasting at Nitray plus an optional wine tasting. Round trip transport from Paris by private air-conditioned coach.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour with Transportation from Paris</t>
+          <t>Title: Loire Valley Castles Tour from Paris with Lunch and Wine Tasting</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P18</t>
+          <t>PRODUCTCODE: 15619P5</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: From April 04th to September 30th, 2019, you will attend in addition to the visit of the castle of Chambord to a real tournament show of Knights and raptors. Visit continues to Chateau de Cheverny with the permanent exhibition on TINTIN, the famous character of Hergé.</t>
+          <t>Summarized description: Château de Chambord is a UNESCO World Heritage site erected by King Francis I. The Loire Valley is home to three of the area's famous Renaissance-era castles.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY : CHAMBORD for KIDS (and Cheverny) - Private day trip from PARIS</t>
+          <t>Title: Private Loire Valley Day Trip from Paris with Guide</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P304</t>
+          <t>PRODUCTCODE: 435310P2</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy convenient roundtrip transfers from Paris in a luxury, air-conditioned coach. Visit the famous Loire Valley castles with an knowledgeable guide or audio guide.</t>
+          <t>Summarized description: The Châteaux of Chambord, Chenonceau, and Amboise are located in the Loire Valley. The 2-hour journey begins at your hotel in Paris. Your personal guide-chauffeur will fine-tune the smallest details of the tour.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
+          <t>Title: Loire Valley Emblematic Castles Private Tour with Antoine</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5544MBP7</t>
+          <t>PRODUCTCODE: 332536P591</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Chenonceau Castle and the Chateau de Chambord are located in the Loire Valley. Take a day tour from Paris to visit the famous chateaux.</t>
+          <t>Summarized description: Discover the wonders of the Loire Valley and visit the Chambord and Chenonceau Castles in one day. Experience a real fairytale and immerse yourself in French history, culture and art.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Deluxe Loire Valley Castles Day Trip from Paris with Japanese Guide</t>
+          <t>Title: Château de Chambord &amp; Chenonceau from Paris by Car</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P88</t>
+          <t>PRODUCTCODE: 2050P268</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Three of the most breathtaking Loire Valley castles including Chateau de Chambord. Lunch and wine tasting at Nitray plus an optional wine tasting. Round trip transport from Paris by private air-conditioned coach.</t>
+          <t>Summarized description: Majestic castles, famous wines and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley. Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Tour from Paris with Lunch and Wine Tasting</t>
+          <t>Title: Day Tour Loire Valley with 3 Castles (Pick up included)</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P591</t>
+          <t>PRODUCTCODE: 91672P70</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of the Loire Valley and visit the Chambord and Chenonceau Castles in one day. Experience a real fairytale and immerse yourself in French history, culture and art.</t>
+          <t>Summarized description: Visit 3 magnificent castles in the Loire Valley at your own pace and with easy coach transport. Learn about the lives of the Kings of France and the Renaissance period.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Château de Chambord &amp; Chenonceau from Paris by Car</t>
+          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P268</t>
+          <t>PRODUCTCODE: 258697P1</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic castles, famous wines and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley. Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy.</t>
+          <t>Summarized description: Discover the French Renaissance style with the 16th century Chambord castle. You will be seduced by the unique architecture of the castle and also with its rich collection of paintings and furniture.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Day Tour Loire Valley with 3 Castles (Pick up included)</t>
+          <t>Title: Loire Valley Castles private tour from Paris</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 91672P70</t>
+          <t>PRODUCTCODE: 69834P3</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 3 magnificent castles in the Loire Valley at your own pace and with easy coach transport. Learn about the lives of the Kings of France and the Renaissance period.</t>
+          <t>Summarized description: Renaissance castles along the Loire, Chambord and Cheverny rivers. First visit is to ChambORD, the first that Carlos fifth visited with his court in 1539. We will eat in Chambords (menu not included), and we will continue in ChevernY, 17th century castle.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
+          <t>Title: Private tour in Chambord and Cheverny with pick up at your hotel in Paris region</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P45</t>
+          <t>PRODUCTCODE: 171266P2</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is referred to as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. Travel to the city of Tours in a comfortable private car (with all sanitary measures)</t>
+          <t>Summarized description: The Loire Valley was favorite residence of the Kings of France during the Renaissance. Visit the Chateau de Chambord and Chateaux de Chennonceau, the two most iconic castles in the region.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Visit the Loire Valley Castles in 1-Day Tour from Paris by PRIVATE CAR</t>
+          <t>Title: Private Full-Day Loire Valley Castles Tour from Paris</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P4</t>
+          <t>PRODUCTCODE: 110148P45</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley Region is located at 100 miles far from Paris. It is called the ‘Valley of the Kings’ as this valley was much loved by the Kings of France. There are 25 palaces built by the kings and embellished with parks and gardens.</t>
+          <t>Summarized description: The Loire Valley is referred to as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. Travel to the city of Tours in a comfortable private car (with all sanitary measures)</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Private Loire Valley Castles with Minivan</t>
+          <t>Title: Visit the Loire Valley Castles in 1-Day Tour from Paris by PRIVATE CAR</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10913P5</t>
+          <t>PRODUCTCODE: 218758P4</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: A 12-hour tour to visit 3 castles. The relevant ones are Amboise, Chambord and Chenonceau. There is also the possibility to visit some other ones like Blois or Cheverny.</t>
+          <t>Summarized description: The Loire Valley Region is located at 100 miles far from Paris. It is called the ‘Valley of the Kings’ as this valley was much loved by the Kings of France. There are 25 palaces built by the kings and embellished with parks and gardens.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Full Day Private Guided Tour wih Hotel Pickup</t>
+          <t>Title: Private Loire Valley Castles with Minivan</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 282284P1</t>
+          <t>PRODUCTCODE: 10913P5</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Chateau d'Amboise, the Chateau de Chenonceau and the ChATEau de Chambord are among the castles in the region. Learn about Renaissance architecture and historical figures who once lived in or spent time in these stunning royal residences.</t>
+          <t>Summarized description: A 12-hour tour to visit 3 castles. The relevant ones are Amboise, Chambord and Chenonceau. There is also the possibility to visit some other ones like Blois or Cheverny.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Private Day Tour of the Loire Valley Castles from Paris</t>
+          <t>Title: Loire Valley Full Day Private Guided Tour wih Hotel Pickup</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P13</t>
+          <t>PRODUCTCODE: 282284P1</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the medieval city, its chateaux, and more on a scenic road trip by car. This picturesque experience will take you to the cities of Chambord, Blois, Amboise, and Chenonceau.</t>
+          <t>Summarized description: Chateau d'Amboise, the Chateau de Chenonceau and the ChATEau de Chambord are among the castles in the region. Learn about Renaissance architecture and historical figures who once lived in or spent time in these stunning royal residences.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Paris Premium : Loire Valley Castles Private Day trip (Transportations included)</t>
+          <t>Title: Private Day Tour of the Loire Valley Castles from Paris</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175581P43</t>
+          <t>PRODUCTCODE: 239576P13</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is said to be the inspiration for the castle in Disney’s ‘Beauty and the Beast’ Enjoy a home-cooked meal, a generous wine tasting, and a relaxed tour of the property.</t>
+          <t>Summarized description: Explore the medieval city, its chateaux, and more on a scenic road trip by car. This picturesque experience will take you to the cities of Chambord, Blois, Amboise, and Chenonceau.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Day Trip from Paris with Wine Tasting + SKIP THE LINE</t>
+          <t>Title: Paris Premium : Loire Valley Castles Private Day trip (Transportations included)</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 115705P10</t>
+          <t>PRODUCTCODE: 175581P43</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: The Château de Chenonceau is one of the biggest castles in the Loire Valley. It is located on the banks of the River Loire, near the village of Chambord.</t>
+          <t>Summarized description: Château de Chambord is said to be the inspiration for the castle in Disney’s ‘Beauty and the Beast’ Enjoy a home-cooked meal, a generous wine tasting, and a relaxed tour of the property.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Loire Castles Tour From Paris</t>
+          <t>Title: Loire Valley Castles Day Trip from Paris with Wine Tasting + SKIP THE LINE</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118524P13</t>
+          <t>PRODUCTCODE: 115705P10</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Marvel in front of the Loire castles with your personal knowledgeable and lively private guide. Whether you are a couple, a group of friends, or with your extended family, you will enjoy a unique visit. This private tour is 100% customizable.</t>
+          <t>Summarized description: The Château de Chenonceau is one of the biggest castles in the Loire Valley. It is located on the banks of the River Loire, near the village of Chambord.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Private Tour From Paris/skip-the-line ticket</t>
+          <t>Title: Loire Castles Tour From Paris</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24124P10</t>
+          <t>PRODUCTCODE: 118524P13</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Tour three of the major castles in the UNESCO World Heritage–listed region. Tour the inside of the three castles with a private guide, who shares insight about the architecture and history.</t>
+          <t>Summarized description: Marvel in front of the Loire castles with your personal knowledgeable and lively private guide. Whether you are a couple, a group of friends, or with your extended family, you will enjoy a unique visit. This private tour is 100% customizable.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
+          <t>Title: Loire Valley Castles Private Tour From Paris/skip-the-line ticket</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P15</t>
+          <t>PRODUCTCODE: 24124P10</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Non-golfers will be able to visit the Chateau de Cheverny at their own pace while you play the 18 holes of the ChevernY Golf Club.</t>
+          <t>Summarized description: Tour three of the major castles in the UNESCO World Heritage–listed region. Tour the inside of the three castles with a private guide, who shares insight about the architecture and history.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY : Play golf and visit Chambord and Cheverny (1 Day-trip from PARIS)</t>
+          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>

--- a/experiment_results/9511P25.xlsx
+++ b/experiment_results/9511P25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1322"/>
+  <dimension ref="A1:I1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Wildlife Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35428P2</t>
+          <t>PRODUCTCODE: 2050P289</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the magnificent Château de Chambord, savor a wine &amp; food pairing lunch at a family-run winery or a gourmet restaurant. White, red, rosé, sparkling wines, you’ll be amazed by the diversity of Loire Valley wines. This small-group tour limited to 8 people includes round-trip transportation in air-conditioned minivan.</t>
+          <t>Summarized description: Discover the beautiful Loire Valley region. You'll discover three majestic French Chateaux : Chambord, Chenonceau and Cheverny. Visit on your own to fully enjoy the setting.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Wines and Castle Small Group Day Trip from Paris</t>
+          <t>Title: Self Guided Loire Valley Day Trip with Palace Entry Tickets</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 35</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P289</t>
+          <t>PRODUCTCODE: 2050CL2</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beautiful Loire Valley region. You'll discover three majestic French Chateaux : Chambord, Chenonceau and Cheverny. Visit on your own to fully enjoy the setting.</t>
+          <t>Summarized description: Discover some of the most picturesque villages on this 2-day Loire Valley Castles tour from Paris. Visit famous French castles such as Château de Chenonceau, Châtereau de Cheverny and Châterau de Chambord. Admire the castles spectacular architecture and ornate interiors.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Self Guided Loire Valley Day Trip with Palace Entry Tickets</t>
+          <t>Title: 2-Day Loire Valley Castles Tour from Paris</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050CL2</t>
+          <t>PRODUCTCODE: 268293P22</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Discover some of the most picturesque villages on this 2-day Loire Valley Castles tour from Paris. Visit famous French castles such as Château de Chenonceau, Châtereau de Cheverny and Châterau de Chambord. Admire the castles spectacular architecture and ornate interiors.</t>
+          <t>Summarized description: Private Live-guided Full-day trip from Paris for 2 to 6 people to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included. Mercedes Minivan for 3-7 people, Mercedes E220 business class car for 2-3 people. Duration of 13 hours, longer as usual.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: 2-Day Loire Valley Castles Tour from Paris</t>
+          <t>Title: Private 3 Loire Valley Castles from Paris Mercedes Wine tasting</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 382111P4</t>
+          <t>PRODUCTCODE: 19014P22</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: This tour combines 3 very famous chateaux of your choice in the Loire Valley. Our professional guide and driver will do everything possible and impossible to make your experience unforgettable.</t>
+          <t>Summarized description: Discover the gorgeous Loire Valley with your friends or family that is known for its fairytale castles and incredible wineries. You will visit two of the regions most iconic chateaus such as chateau Amboise, Chambord and Chennonceau. Enjoy the atmosphere of a small group tour and get pick-up and a drop-off to your hotel.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: 3 Loire Valley Castles and Wine Tasting Private Guided Tour</t>
+          <t>Title: Incredible Loire castles tour with wine tastings and lunch</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 26</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P22</t>
+          <t>PRODUCTCODE: 66049P39</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Private Live-guided Full-day trip from Paris for 2 to 6 people to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included. Mercedes Minivan for 3-7 people, Mercedes E220 business class car for 2-3 people. Duration of 13 hours, longer as usual.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. Clos Lucé is now a museum and reflects the prestigious history of the region and includes 40 models of the various machines designed by Leonardo.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Private 3 Loire Valley Castles from Paris Mercedes Wine tasting</t>
+          <t>Title: Loire Valley Chambord Castle &amp; Da Vinci Castle - Daytrip from Paris</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19014P22</t>
+          <t>PRODUCTCODE: 101669P2</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the gorgeous Loire Valley with your friends or family that is known for its fairytale castles and incredible wineries. You will visit two of the regions most iconic chateaus such as chateau Amboise, Chambord and Chennonceau. Enjoy the atmosphere of a small group tour and get pick-up and a drop-off to your hotel.</t>
+          <t>Summarized description: Tour includes a round trip TGV train ticket from Paris. Sleep one night in a private château when available or troglodyte suite. Visit the famous castles of: Chambord, Amboise, the Clos Lucé, Chenonceau, Chaumont sur Loire.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Incredible Loire castles tour with wine tastings and lunch</t>
+          <t xml:space="preserve">Title: Loire Valley 2 Days private tour all inclusive from Paris with train tickets </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P39</t>
+          <t>PRODUCTCODE: 268293P80</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. Clos Lucé is now a museum and reflects the prestigious history of the region and includes 40 models of the various machines designed by Leonardo.</t>
+          <t>Summarized description: A high-quality Live-guided Small-group trip for 4 to 7 clients with Hotel pick up option to Chenonceau, Chambord and Leonardo da Vinci Clos Luce castle. Mercedes minivan drives faster than a normal bus and is more comfortable.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chambord Castle &amp; Da Vinci Castle - Daytrip from Paris</t>
+          <t>Title: Chambord, Chenonceau, Da Vinci Castle Small group Trip from Paris</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P80</t>
+          <t>PRODUCTCODE: 7817P45</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality Live-guided Small-group trip for 4 to 7 clients with Hotel pick up option to Chenonceau, Chambord and Leonardo da Vinci Clos Luce castle. Mercedes minivan drives faster than a normal bus and is more comfortable.</t>
+          <t>Summarized description: France's Loire Valley is known for its dozens of castles, or 'châteaux,' where French kings and nobility lived during the 15th and 16th centuries. Learn about figures like Leonardo da Vinci who contributed to the region's artistic landscape.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Chambord, Chenonceau, Da Vinci Castle Small group Trip from Paris</t>
+          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7817P45</t>
+          <t>PRODUCTCODE: 216622P16</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: France's Loire Valley is known for its dozens of castles, or 'châteaux,' where French kings and nobility lived during the 15th and 16th centuries. Learn about figures like Leonardo da Vinci who contributed to the region's artistic landscape.</t>
+          <t>Summarized description: Follow in the footsteps of French Renaissance kings and queens. Experience a real fairy tale in the charming gardens and elaborate interiors of famous French castles.Allow stories of royal affairs, deaths and kidnappings to capture your imagination.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
+          <t>Title: Visit of the Loire Valley Castles in one day from Paris</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 216622P16</t>
+          <t>PRODUCTCODE: 5045LOIRE_P</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Follow in the footsteps of French Renaissance kings and queens. Experience a real fairy tale in the charming gardens and elaborate interiors of famous French castles.Allow stories of royal affairs, deaths and kidnappings to capture your imagination.</t>
+          <t>Summarized description: The Loire Valley is home to three UNESCO World Heritage-listed châteaux: Amboise, Chenonceau, and Chambord. Find out which castle the royals favored, where Leonardo da Vinci's remains are buried, and which castle is so stunning that it boasts its own UNESCO status.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Visit of the Loire Valley Castles in one day from Paris</t>
+          <t>Title: Loire Valley Castles Private Trip including Lunch from Paris</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5045LOIRE_P</t>
+          <t>PRODUCTCODE: 2050P175</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is home to three UNESCO World Heritage-listed châteaux: Amboise, Chenonceau, and Chambord. Find out which castle the royals favored, where Leonardo da Vinci's remains are buried, and which castle is so stunning that it boasts its own UNESCO status.</t>
+          <t>Summarized description: Discover three majestic French Chateaux : Chambord, Cheverny and Chenonceau. Self-guided audio tour or at your leisure that includes a transfer from central Paris.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Private Trip including Lunch from Paris</t>
+          <t>Title: Loire Valley Castles Day Trip with Audio Guided Option from Paris</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P175</t>
+          <t>PRODUCTCODE: 35428P5</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Discover three majestic French Chateaux : Chambord, Cheverny and Chenonceau. Self-guided audio tour or at your leisure that includes a transfer from central Paris.</t>
+          <t>Summarized description: Visit the magnificent Chateau of Chambord, enjoy a gourmet wine &amp; food pairing lunch at a family-run winery of the Touraine Wine region. White, red, rosé, sparkling and sweet wines, you’ll be amazed by the diversity of Loire Valley wines. This private tour includes round-trip transportation by air-conditioned car or minivan.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Day Trip with Audio Guided Option from Paris</t>
+          <t>Title: Loire Valley Private Day Trip with Chambord Winery Visit &amp; Lunch</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35428P5</t>
+          <t>PRODUCTCODE: 268293P27</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the magnificent Chateau of Chambord, enjoy a gourmet wine &amp; food pairing lunch at a family-run winery of the Touraine Wine region. White, red, rosé, sparkling and sweet wines, you’ll be amazed by the diversity of Loire Valley wines. This private tour includes round-trip transportation by air-conditioned car or minivan.</t>
+          <t>Summarized description: Private Full-day trip from Paris for 2 to 6 persons to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included ! We offer two options: Live Guided during the whole trip or Audio Guided with experienced driver only.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Private Day Trip with Chambord Winery Visit &amp; Lunch</t>
+          <t>Title: Private Chenonceau, Chambord, Amboise Loire Castles from Paris</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P27</t>
+          <t>PRODUCTCODE: 29942P22</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Private Full-day trip from Paris for 2 to 6 persons to the Top 3 Loire Valley Castles: Chenonceau, Amboise, Chambord. Tickets included ! We offer two options: Live Guided during the whole trip or Audio Guided with experienced driver only.</t>
+          <t>Summarized description: Tour of the Loire valley includes a guided tour of Chenonceau and Chambord castles. Discover the double revolution staircase inspired by Leonardo Da Vinci. Lunch in the historic town of Amboise (not included) where da Vinci lived his last years.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Private Chenonceau, Chambord, Amboise Loire Castles from Paris</t>
+          <t>Title: Loire Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P269</t>
+          <t>PRODUCTCODE: 19551P61</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line entry to Chenonceau Castle, Cheverny Castle and Chambord Castle. Majestic castles and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley.</t>
+          <t>Summarized description: Discover the Loire Valley on this comfortable day trip from Paris. Let your local guide tell your tales &amp; stories of the French Monarchy. Chambord, palace of Kings, Chenonceau, residence of Ladies, and Amboise, home of Leonardo Da Vinci.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Day Trip with 3 Castles including Chambord and Chenonceau</t>
+          <t>Title: Loire Valley Trip from Paris with Private Local Guide &amp; Private Transportation</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P3</t>
+          <t>PRODUCTCODE: 268293P26</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Travel along the king's road to Amboise, Chenanceau, and Chambord castle. We pick you up from your hotel or residence in Paris.</t>
+          <t>Summarized description: Live-guided Small-sized group trip for up to 7 people by Minivan to Three Top Loire Valley castles (Tickets included !): Chenonceau, Amboise and Chambord. We bring You to the local Wine producer where You can get explanations how it is being made for centuries and taste local wines.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Chambord, Chenonceau and Amboise Private One-Day Tour from Paris</t>
+          <t>Title: Live Guided 3 Loire Castles trip from Paris with Wine Tasting</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85439P1405</t>
+          <t>PRODUCTCODE: 2050P269</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a UNESCO World Heritage-listed region. Visit a few of the region’s many castles with an audio guide at each castle.</t>
+          <t>Summarized description:  skip-the-line entry to Chenonceau Castle, Cheverny Castle and Chambord Castle. Majestic castles and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Day Trip: Paris to Loire Valley Castles - (champagne on board)</t>
+          <t>Title: Loire Valley Day Trip with 3 Castles including Chambord and Chenonceau</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10913P7</t>
+          <t>PRODUCTCODE: 320547P3</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a scenic region known for its wine and stunning French châteaux. With a private guide, you'll learn about the lifestyle, art, architecture and politics of the historical period.</t>
+          <t>Summarized description: Travel along the king's road to Amboise, Chenanceau, and Chambord castle. We pick you up from your hotel or residence in Paris.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Full-Day Private Guided Tour with Hotel Pickup</t>
+          <t>Title: Chambord, Chenonceau and Amboise Private One-Day Tour from Paris</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P11</t>
+          <t>PRODUCTCODE: 85439P1405</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Royal castles are part and parcel of a romantic tour through European history. You will feel like a royal as you discover the famous castles in the world. See 3 fairytale castles in a day’s round trip from Paris, travelling in a private coach.</t>
+          <t>Summarized description: The Loire Valley is a UNESCO World Heritage-listed region. Visit a few of the region’s many castles with an audio guide at each castle.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Day trip from Paris : Fairytale Loire Castles Tour (Wine Testing) </t>
+          <t>Title: Day Trip: Paris to Loire Valley Castles - (champagne on board)</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P281</t>
+          <t>PRODUCTCODE: 239576P11</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: The fifth centenary of Leonardo da Vinci’s death is celebrated this year. Follow in his footsteps to the magnificent Loire Valley where the genius chose to spend the last years of his life. Discover three castles of the Loire region – Clos de Luce, Chambord and Amboise. Enjoy an immersive, 3D experience with the interactive HistoPad.</t>
+          <t>Summarized description: Royal castles are part and parcel of a romantic tour through European history. You will feel like a royal as you discover the famous castles in the world. See 3 fairytale castles in a day’s round trip from Paris, travelling in a private coach.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Leonardo DA VINCI 's Final Footsteps: Three Castles of The Loire Valley</t>
+          <t xml:space="preserve">Title: Day trip from Paris : Fairytale Loire Castles Tour (Wine Testing) </t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P378</t>
+          <t>PRODUCTCODE: 108258P32</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour includes entrance fees to Chenonceau and Clos de Lucé Palaces. Private driver will take you back to your hotel or place of choice in Paris.</t>
+          <t>Summarized description: The driver will pick you from your place to bring you to the Castle and the returning to your place is included. Everything is included in the Package. The first château was a medieval châterau dating from the 12th and 13th centuries.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Tour to Loire Valley from Paris with Hotel Pick Up</t>
+          <t>Title: Castle Of Chenonceau - Private Trip</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P43</t>
+          <t>PRODUCTCODE: 101669P1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Montresor is one of the most beautiful villages in France. You will also visit the amazing castle of Chenonceau which cross the Cher River. We only offer privatized sightseeing tours. No grouping with strangers.</t>
+          <t>Summarized description: This private tour includes a round trip TGV train ticket from Paris. Visit the famous castles: Chambord, Chenonceau and the Clos Lucé with a local guide. Taste the delicate wines of the region.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY : Chenonceau, Valençay &amp; Montresor ( the most beautiful village)</t>
+          <t>Title: Loire Valley 2 full Days private tour all inclusive from Paris by TGV train.</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195128P1</t>
+          <t>PRODUCTCODE: 105075P43</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Travel in air-conditioned comfort to the beautiful Loire Valley. Live like French royalty for a day with local food, wine tasting and the freedom to explore three stunning châteaux.</t>
+          <t>Summarized description: Montresor is one of the most beautiful villages in France. You will also visit the amazing castle of Chenonceau which cross the Cher River. We only offer privatized sightseeing tours. No grouping with strangers.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Fairtale Loire Castle Tour</t>
+          <t>Title: LOIRE VALLEY : Chenonceau, Valençay &amp; Montresor ( the most beautiful village)</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P4</t>
+          <t>PRODUCTCODE: 195128P1</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Chambord, Cheverny and Chenonceau are the top 3 castles in the Loire Valley. All our services are privatized and without regrouping with unknown visitors.</t>
+          <t>Summarized description: Travel in air-conditioned comfort to the beautiful Loire Valley. Live like French royalty for a day with local food, wine tasting and the freedom to explore three stunning châteaux.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY: Private day-trip to visit Chambord, Cheverny and Chenonceau</t>
+          <t>Title: Fairtale Loire Castle Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P51</t>
+          <t>PRODUCTCODE: 105075P4</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Start your trip with a visit to the famous Château d'Harcourt. Then travel to the French Riviera to see some of the world's most beautiful scenery.</t>
+          <t>Summarized description: Chambord, Cheverny and Chenonceau are the top 3 castles in the Loire Valley. All our services are privatized and without regrouping with unknown visitors.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Mont St. Michel, D-Day Beaches &amp; Loire Valley Castles in PRIVATE CAR from Paris</t>
+          <t>Title: LOIRE VALLEY: Private day-trip to visit Chambord, Cheverny and Chenonceau</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 379045P5</t>
+          <t>PRODUCTCODE: 105075P26</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 2 castles and medieval town. Enjoy local cheeses, charcuterie, fresh bread, and of course, more delicious wine. After the visit, we go back to Paris.</t>
+          <t>Summarized description: We offer you a unique 2 days / 1 night getaway that you will not find anywhere else. At your own pace, accompanied by a driver guide, you will visit four of the main chateaux in the Loire Valley. An evening in a family castle open only for you.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Private Full Day Trip to Loire Valley Castles with Wine Tasting</t>
+          <t>Title: The good life : exclusive tour Loire Valley (2 days) - overnight in a castle</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 140538P21</t>
+          <t>PRODUCTCODE: 379045P5</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
+          <t>Summarized description: Visit 2 castles and medieval town. Enjoy local cheeses, charcuterie, fresh bread, and of course, more delicious wine. After the visit, we go back to Paris.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chambord &amp; Chenenceau Two Castles in One Day Trip from Paris</t>
+          <t>Title: Private Full Day Trip to Loire Valley Castles with Wine Tasting</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247562P271</t>
+          <t>PRODUCTCODE: 140538P21</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a pocket of France brimming with fairytale castles and aristocratic mansions. Chambord is thought to have been partly designed by no less than Leonardo Da Vinci. Chenonceau is the residence of Diane de Poitiers and Catherine de Medici and home to a precious collection of artworks.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Private tour of Loire Castles: Chambord, Amboise, Chenonceau</t>
+          <t>Title: Loire Valley Chambord &amp; Chenenceau Two Castles in One Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P347</t>
+          <t>PRODUCTCODE: 247562P271</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: The Cheverny Castle, the River-spanning Chenonceau and the extravanganza Chambord are just some of the jewels of the Loire Valley. Your journey will start from Paris by private vehicle.</t>
+          <t>Summarized description: The Loire Valley is a pocket of France brimming with fairytale castles and aristocratic mansions. Chambord is thought to have been partly designed by no less than Leonardo Da Vinci. Chenonceau is the residence of Diane de Poitiers and Catherine de Medici and home to a precious collection of artworks.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Private Guided Day Trip with 3 Castles from Paris</t>
+          <t>Title: Private tour of Loire Castles: Chambord, Amboise, Chenonceau</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66049P14</t>
+          <t>PRODUCTCODE: 2050P347</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
+          <t>Summarized description: The Cheverny Castle, the River-spanning Chenonceau and the extravanganza Chambord are just some of the jewels of the Loire Valley. Your journey will start from Paris by private vehicle.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Chenenceau &amp; Chambord - 2 Castles in One Day</t>
+          <t>Title: Loire Valley Private Guided Day Trip with 3 Castles from Paris</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268293P83</t>
+          <t>PRODUCTCODE: 105075P24</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: A high-quality live-guided Private experience for 2 to 7 peoples to Chenonceau, Chambord and Leonardo da Vinci Clos Luce Castle. The duration of the tour is 13 hours (longer as usual)</t>
+          <t>Summarized description: Lunch in a private family castle as an exclusive guest. You will enjoy the art of living in the French way. Visit Chambord and Cheverny on your own during 2 hours.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Private Chambord, Chenonceau, Da Vinci Clos Lucé Trip from Paris</t>
+          <t>Title: LOIRE VALLEY : Exclusive experience (private lunch in a family castle)</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137600P37</t>
+          <t>PRODUCTCODE: 66049P14</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is a jewel in the UNESCO World Heritage collection. In the valley there are about 1000 castles. Among their diversity we highly recommend to visit: Chambord, Chenonceau, Amboise.</t>
+          <t>Summarized description: Château de Chambord is the largest castle in Loire Valley and was constructed by King Francis I of France (1515-1547) to serve as a hunting lodge. We’ll continue our tour to the beautiful Chenenceau Castle where the famous Diane de Poitiers, the mistress of Henric II, used to live.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Excursion to Loire Castles. Comfortable minibus! Ticket and audioguide included!</t>
+          <t>Title: Loire Valley Chenenceau &amp; Chambord - 2 Castles in One Day</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11690P11</t>
+          <t>PRODUCTCODE: 268293P83</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: France's Loire Valley is a royal region seeded by beautiful towns and villages, each of them with its own castle. It is called as well the "Garden of France" due to the abundance of vineyards, gardens, fruit orchards and cherry fields.</t>
+          <t>Summarized description: A high-quality live-guided Private experience for 2 to 7 peoples to Chenonceau, Chambord and Leonardo da Vinci Clos Luce Castle. The duration of the tour is 13 hours (longer as usual)</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Private day tour to Loire Valley castles from Paris</t>
+          <t>Title: Private Chambord, Chenonceau, Da Vinci Clos Lucé Trip from Paris</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 225787P4</t>
+          <t>PRODUCTCODE: 137600P37</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: We promise you a unique experience: Your tour is totally private, with a personal guide and a personal driver dedicated to you. Chambord and its decadent Garden- the Beautiful and mysterious Chennonceau- and last but not least the royal castle of Amboise.</t>
+          <t>Summarized description: The Loire Valley is a jewel in the UNESCO World Heritage collection. In the valley there are about 1000 castles. Among their diversity we highly recommend to visit: Chambord, Chenonceau, Amboise.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Unforgettable Loire Valley VIP tour (from Paris) - Tree castles in one day!</t>
+          <t>Title: Excursion to Loire Castles. Comfortable minibus! Ticket and audioguide included!</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137600P13</t>
+          <t>PRODUCTCODE: 243313P46</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley has preserved more than 1000 ancient castles and residences. During the one-day excursion you will visit three amazing castles with their unique history and ancient interiors.</t>
+          <t>Summarized description: The Loire Valley is known as the "Cultivate of France" It is home to the Châteaux Chambord and Chenonceau. It is also the site of some of the most beautiful scenery in the world.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Guided tour of the Loire Castles. Transfer included</t>
+          <t>Title: Paris to Loire Valley Chateaux Guided Tour with Wine Testing (All included)</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186490P5</t>
+          <t>PRODUCTCODE: 225787P4</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: No train ( you 'll be pick up at your front door downtown Paris ; after a 2 and 1/2 Hr drive we'll reach the 1st chateau ( Chambord ) Your qualified tour guide ( who is also your driver ) will guide you inside the castle ( you won't be left on your own ) so that you can learn much more about French History and about the chateaus itself. After a lunch in a little pitturesque village ,in a restaurant recommended by your guide, you'll visit (still with your private guide ) the charming chatesau of Chenonceau. If time permits ,you guide can also arrange a wine tasting during your day in the Loire region.</t>
+          <t>Summarized description: We promise you a unique experience: Your tour is totally private, with a personal guide and a personal driver dedicated to you. Chambord and its decadent Garden- the Beautiful and mysterious Chennonceau- and last but not least the royal castle of Amboise.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Castles Of The Loire By Private Car From Paris With An Official Tour Guide </t>
+          <t>Title: Unforgettable Loire Valley VIP tour (from Paris) - Tree castles in one day!</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 420369P5</t>
+          <t>PRODUCTCODE: 208552P3</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Take a luxurious air-conditioned bus to the Loire Valley and spend the day like French royalty there. Visit the charming town of Blois and two magnificent castles. Take a tour and sample some regional wine.</t>
+          <t>Summarized description: More than 50 monuments of culture and architecture have survived to our time. The most famous are the castles of Chambord, Chenonceau, Amboise and Blois.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour with Transportation from Paris</t>
+          <t>Title: A trip to the Loire Valley from Paris</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 105075P18</t>
+          <t>PRODUCTCODE: 186490P5</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: From April 04th to September 30th, 2019, you will attend in addition to the visit of the castle of Chambord to a real tournament show of Knights and raptors. Visit continues to Chateau de Cheverny with the permanent exhibition on TINTIN, the famous character of Hergé.</t>
+          <t>Summarized description: No train ( you 'll be pick up at your front door downtown Paris ; after a 2 and 1/2 Hr drive we'll reach the 1st chateau ( Chambord ) Your qualified tour guide ( who is also your driver ) will guide you inside the castle ( you won't be left on your own ) so that you can learn much more about French History and about the chateaus itself. After a lunch in a little pitturesque village ,in a restaurant recommended by your guide, you'll visit (still with your private guide ) the charming chatesau of Chenonceau. If time permits ,you guide can also arrange a wine tasting during your day in the Loire region.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: LOIRE VALLEY : CHAMBORD for KIDS (and Cheverny) - Private day trip from PARIS</t>
+          <t xml:space="preserve">Title: The Castles Of The Loire By Private Car From Paris With An Official Tour Guide </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P304</t>
+          <t>PRODUCTCODE: 5544MBP7</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy convenient roundtrip transfers from Paris in a luxury, air-conditioned coach. Visit the famous Loire Valley castles with an knowledgeable guide or audio guide.</t>
+          <t>Summarized description: Chenonceau Castle and the Chateau de Chambord are located in the Loire Valley. Take a day tour from Paris to visit the famous chateaux.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
+          <t>Title: Deluxe Loire Valley Castles Day Trip from Paris with Japanese Guide</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5544MBP7</t>
+          <t>PRODUCTCODE: 15619P5</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Chenonceau Castle and the Chateau de Chambord are located in the Loire Valley. Take a day tour from Paris to visit the famous chateaux.</t>
+          <t>Summarized description: Château de Chambord is a UNESCO World Heritage site erected by King Francis I. The Loire Valley is home to three of the area's famous Renaissance-era castles.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Deluxe Loire Valley Castles Day Trip from Paris with Japanese Guide</t>
+          <t>Title: Private Loire Valley Day Trip from Paris with Guide</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P88</t>
+          <t>PRODUCTCODE: 435310P2</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Three of the most breathtaking Loire Valley castles including Chateau de Chambord. Lunch and wine tasting at Nitray plus an optional wine tasting. Round trip transport from Paris by private air-conditioned coach.</t>
+          <t>Summarized description: The Châteaux of Chambord, Chenonceau, and Amboise are located in the Loire Valley. The 2-hour journey begins at your hotel in Paris. Your personal guide-chauffeur will fine-tune the smallest details of the tour.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Tour from Paris with Lunch and Wine Tasting</t>
+          <t>Title: Loire Valley Emblematic Castles Private Tour with Antoine</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15619P5</t>
+          <t>PRODUCTCODE: 332536P591</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Château de Chambord is a UNESCO World Heritage site erected by King Francis I. The Loire Valley is home to three of the area's famous Renaissance-era castles.</t>
+          <t>Summarized description: Discover the wonders of the Loire Valley and visit the Chambord and Chenonceau Castles in one day. Experience a real fairytale and immerse yourself in French history, culture and art.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Private Loire Valley Day Trip from Paris with Guide</t>
+          <t>Title: Château de Chambord &amp; Chenonceau from Paris by Car</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 435310P2</t>
+          <t>PRODUCTCODE: 2050P268</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: The Châteaux of Chambord, Chenonceau, and Amboise are located in the Loire Valley. The 2-hour journey begins at your hotel in Paris. Your personal guide-chauffeur will fine-tune the smallest details of the tour.</t>
+          <t>Summarized description: Majestic castles, famous wines and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley. Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Emblematic Castles Private Tour with Antoine</t>
+          <t>Title: Day Tour Loire Valley with 3 Castles (Pick up included)</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P591</t>
+          <t>PRODUCTCODE: 91672P70</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of the Loire Valley and visit the Chambord and Chenonceau Castles in one day. Experience a real fairytale and immerse yourself in French history, culture and art.</t>
+          <t>Summarized description: Visit 3 magnificent castles in the Loire Valley at your own pace and with easy coach transport. Learn about the lives of the Kings of France and the Renaissance period.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Château de Chambord &amp; Chenonceau from Paris by Car</t>
+          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P268</t>
+          <t>PRODUCTCODE: 171266P2</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic castles, famous wines and Renaissance masterpieces make up this unforgettable trip to the charming Loire Valley. Enjoy skip-the-line entry to Chambord then Chenonceau to be wowed by the extravagant glamor of the French aristocracy.</t>
+          <t>Summarized description: The Loire Valley was favorite residence of the Kings of France during the Renaissance. Visit the Chateau de Chambord and Chateaux de Chennonceau, the two most iconic castles in the region.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Day Tour Loire Valley with 3 Castles (Pick up included)</t>
+          <t>Title: Private Full-Day Loire Valley Castles Tour from Paris</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 91672P70</t>
+          <t>PRODUCTCODE: 110148P45</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 3 magnificent castles in the Loire Valley at your own pace and with easy coach transport. Learn about the lives of the Kings of France and the Renaissance period.</t>
+          <t>Summarized description: The Loire Valley is referred to as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. Travel to the city of Tours in a comfortable private car (with all sanitary measures)</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles Guided Tour from Paris</t>
+          <t>Title: Visit the Loire Valley Castles in 1-Day Tour from Paris by PRIVATE CAR</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 258697P1</t>
+          <t>PRODUCTCODE: 218758P4</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the French Renaissance style with the 16th century Chambord castle. You will be seduced by the unique architecture of the castle and also with its rich collection of paintings and furniture.</t>
+          <t>Summarized description: The Loire Valley Region is located at 100 miles far from Paris. It is called the ‘Valley of the Kings’ as this valley was much loved by the Kings of France. There are 25 palaces built by the kings and embellished with parks and gardens.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Castles private tour from Paris</t>
+          <t>Title: Private Loire Valley Castles with Minivan</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 69834P3</t>
+          <t>PRODUCTCODE: 10913P5</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Renaissance castles along the Loire, Chambord and Cheverny rivers. First visit is to ChambORD, the first that Carlos fifth visited with his court in 1539. We will eat in Chambords (menu not included), and we will continue in ChevernY, 17th century castle.</t>
+          <t>Summarized description: A 12-hour tour to visit 3 castles. The relevant ones are Amboise, Chambord and Chenonceau. There is also the possibility to visit some other ones like Blois or Cheverny.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Private tour in Chambord and Cheverny with pick up at your hotel in Paris region</t>
+          <t>Title: Loire Valley Full Day Private Guided Tour wih Hotel Pickup</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 171266P2</t>
+          <t>PRODUCTCODE: 282284P1</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley was favorite residence of the Kings of France during the Renaissance. Visit the Chateau de Chambord and Chateaux de Chennonceau, the two most iconic castles in the region.</t>
+          <t>Summarized description: Chateau d'Amboise, the Chateau de Chenonceau and the ChATEau de Chambord are among the castles in the region. Learn about Renaissance architecture and historical figures who once lived in or spent time in these stunning royal residences.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Private Full-Day Loire Valley Castles Tour from Paris</t>
+          <t>Title: Private Day Tour of the Loire Valley Castles from Paris</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110148P45</t>
+          <t>PRODUCTCODE: 239576P13</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley is referred to as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. Travel to the city of Tours in a comfortable private car (with all sanitary measures)</t>
+          <t>Summarized description: Explore the medieval city, its chateaux, and more on a scenic road trip by car. This picturesque experience will take you to the cities of Chambord, Blois, Amboise, and Chenonceau.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Visit the Loire Valley Castles in 1-Day Tour from Paris by PRIVATE CAR</t>
+          <t>Title: Paris Premium : Loire Valley Castles Private Day trip (Transportations included)</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 218758P4</t>
+          <t>PRODUCTCODE: 115705P10</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: The Loire Valley Region is located at 100 miles far from Paris. It is called the ‘Valley of the Kings’ as this valley was much loved by the Kings of France. There are 25 palaces built by the kings and embellished with parks and gardens.</t>
+          <t>Summarized description: The Château de Chenonceau is one of the biggest castles in the Loire Valley. It is located on the banks of the River Loire, near the village of Chambord.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Private Loire Valley Castles with Minivan</t>
+          <t>Title: Loire Castles Tour From Paris</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10913P5</t>
+          <t>PRODUCTCODE: 24124P10</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: A 12-hour tour to visit 3 castles. The relevant ones are Amboise, Chambord and Chenonceau. There is also the possibility to visit some other ones like Blois or Cheverny.</t>
+          <t>Summarized description: Tour three of the major castles in the UNESCO World Heritage–listed region. Tour the inside of the three castles with a private guide, who shares insight about the architecture and history.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Loire Valley Full Day Private Guided Tour wih Hotel Pickup</t>
+          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 282284P1</t>
+          <t>PRODUCTCODE: 110148P30</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Chateau d'Amboise, the Chateau de Chenonceau and the ChATEau de Chambord are among the castles in the region. Learn about Renaissance architecture and historical figures who once lived in or spent time in these stunning royal residences.</t>
+          <t>Summarized description: The Loire Valley is known as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. You will have a guided visit of three Châteaux, especially known for its beautiful gardens. At the end of the day return to Paris in the Bullet train.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Private Day Tour of the Loire Valley Castles from Paris</t>
+          <t>Title: Loire Valley Castles Private 1-Day Tour from Paris by Train &amp; Minivan</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239576P13</t>
+          <t>PRODUCTCODE: 268293P71</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the medieval city, its chateaux, and more on a scenic road trip by car. This picturesque experience will take you to the cities of Chambord, Blois, Amboise, and Chenonceau.</t>
+          <t>Summarized description: 2-day Private Live-guided trip from Paris to Mont Saint-Michel, Normandy’s capital Rouen, Medieval harbour-city Honfleur and Top 3 Loire Valley Castles: Chambord, Chenonceau and Amboise. Hotel Pick up &amp; Drop off. Double Room accommodation with breakfast for one night at a 3*+/4* Hotel. Mercedes E220 business class car for 2-3 people or Mercedes Minivan for 3-7 participants.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Paris Premium : Loire Valley Castles Private Day trip (Transportations included)</t>
+          <t>Title: 2-day Private Mont Saint-Michel, Normandy Express 3 Loire Castles</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175581P43</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19954,381 +19954,6 @@
       <c r="H1297" t="inlineStr"/>
       <c r="I1297" t="inlineStr"/>
     </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>Summarized description: Château de Chambord is said to be the inspiration for the castle in Disney’s ‘Beauty and the Beast’ Enjoy a home-cooked meal, a generous wine tasting, and a relaxed tour of the property.</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr"/>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Day Trip from Paris with Wine Tasting + SKIP THE LINE</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr"/>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 115705P10</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr"/>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Summarized description: The Château de Chenonceau is one of the biggest castles in the Loire Valley. It is located on the banks of the River Loire, near the village of Chambord.</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr"/>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>Title: Loire Castles Tour From Paris</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr"/>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 118524P13</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Summarized description: Marvel in front of the Loire castles with your personal knowledgeable and lively private guide. Whether you are a couple, a group of friends, or with your extended family, you will enjoy a unique visit. This private tour is 100% customizable.</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Private Tour From Paris/skip-the-line ticket</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24124P10</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour three of the major castles in the UNESCO World Heritage–listed region. Tour the inside of the three castles with a private guide, who shares insight about the architecture and history.</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Private Day Trip from Paris</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 110148P30</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Summarized description: The Loire Valley is known as the "Garden of France" due to the abundance of vineyards, fruit and vegetable fields. You will have a guided visit of three Châteaux, especially known for its beautiful gardens. At the end of the day return to Paris in the Bullet train.</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Title: Loire Valley Castles Private 1-Day Tour from Paris by Train &amp; Minivan</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
